--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_20_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_20_34.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2837807.866665915</v>
+        <v>2953393.992988396</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12453847.07671752</v>
+        <v>12448913.88118193</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8597424.699013928</v>
+        <v>8598428.292064708</v>
       </c>
     </row>
     <row r="11">
@@ -665,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>239.8079481415051</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>198.3059367771009</v>
       </c>
       <c r="G2" t="n">
-        <v>13.00882974444866</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>122.0400102410186</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>5.774433940770336</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>40.12647427061541</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>213.2445435269807</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>213.2445435269807</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>239.8079481415051</v>
       </c>
       <c r="Y2" t="n">
-        <v>213.2445435269807</v>
+        <v>239.8079481415051</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>110.5101541774392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -783,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.90078060183511</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T3" t="n">
-        <v>195.2176514895044</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>213.2445435269807</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0.07970077256330739</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>213.2445435269807</v>
+        <v>239.8079481415051</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -814,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>100.4757882563738</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9620113031242</v>
+        <v>103.2729538446567</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20.6111386045213</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>239.8079481415051</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>239.8079481415051</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>213.2445435269807</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>290.2905114143468</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>75.57704867635141</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>290.2905114143468</v>
       </c>
       <c r="G5" t="n">
-        <v>12.63857245346284</v>
+        <v>12.74220307430065</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>107.7656660302879</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>148.3104082433898</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>211.8871100493787</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1325197029027</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>320.2362084475256</v>
+        <v>290.2905114143468</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>320.2362084475256</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>31.05856933007727</v>
       </c>
     </row>
     <row r="6">
@@ -981,10 +983,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1020,22 +1022,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>11.65464780838202</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>145.2059886958168</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>81.66523651063012</v>
+        <v>225.8512500608582</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>78.24263936917053</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1063,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>69.24189982942853</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>123.5594750121875</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.0001972153979</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.0380733165757</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,13 +1116,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>201.6393217091108</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,7 +1150,7 @@
         <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>49.83235651299523</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>221.2724253573335</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0.4692638957999577</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>93.35134340799036</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,22 +1344,22 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1421,10 +1423,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1528,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>22.6126310577748</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1578,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>127.6210071331219</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1591,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1670,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1762,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1815,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1822,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>179.4515336021211</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>34.56584948763671</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1898,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2002,19 +2004,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>89.45659128798552</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>99.17988875728673</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2096,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>41.33703994142957</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>94.80184639741307</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2327,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2491,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>10.63412424768347</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2521,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>192.8698817814538</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2552,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2603,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="27">
@@ -2710,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2770,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>74.56474874233434</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2789,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2947,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>70.80302811979901</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2965,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>94.05951414665343</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3010,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3080,7 +3082,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3184,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3232,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>172.3645574474256</v>
       </c>
       <c r="U34" t="n">
-        <v>54.29785174158985</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3320,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3427,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -3472,22 +3474,22 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>36.39209596079228</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>219.4517041866519</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3500,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3551,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3569,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3658,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>54.63637568893558</v>
       </c>
       <c r="D40" t="n">
-        <v>55.4097602225693</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3718,10 +3720,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3737,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3788,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881302</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3806,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3898,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3949,7 +3951,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3961,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>100.5140508960355</v>
+        <v>150.672680124696</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4040,7 +4042,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>173.5740289795531</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4150,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>106.2078024559162</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>160.4180339136521</v>
+        <v>474.7712912700505</v>
       </c>
       <c r="C2" t="n">
-        <v>160.4180339136521</v>
+        <v>474.7712912700505</v>
       </c>
       <c r="D2" t="n">
-        <v>160.4180339136521</v>
+        <v>474.7712912700505</v>
       </c>
       <c r="E2" t="n">
-        <v>160.4180339136521</v>
+        <v>232.5410406220655</v>
       </c>
       <c r="F2" t="n">
-        <v>153.4725331644486</v>
+        <v>32.2320135744889</v>
       </c>
       <c r="G2" t="n">
-        <v>140.332301099349</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="H2" t="n">
-        <v>140.332301099349</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="I2" t="n">
-        <v>17.05956348215845</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="J2" t="n">
-        <v>30.5697471065107</v>
+        <v>40.41888584470428</v>
       </c>
       <c r="K2" t="n">
-        <v>101.5565284515751</v>
+        <v>122.9820404192965</v>
       </c>
       <c r="L2" t="n">
-        <v>226.5236696486553</v>
+        <v>262.3106962605497</v>
       </c>
       <c r="M2" t="n">
-        <v>397.2431302647976</v>
+        <v>449.0101090859572</v>
       </c>
       <c r="N2" t="n">
-        <v>575.3388186142429</v>
+        <v>643.3443219779394</v>
       </c>
       <c r="O2" t="n">
-        <v>730.1742656760282</v>
+        <v>813.5133472948989</v>
       </c>
       <c r="P2" t="n">
-        <v>827.8217366396342</v>
+        <v>924.2476725444253</v>
       </c>
       <c r="Q2" t="n">
-        <v>852.9781741079227</v>
+        <v>959.2317925660203</v>
       </c>
       <c r="R2" t="n">
-        <v>847.1454125515889</v>
+        <v>959.2317925660203</v>
       </c>
       <c r="S2" t="n">
-        <v>847.1454125515889</v>
+        <v>959.2317925660203</v>
       </c>
       <c r="T2" t="n">
-        <v>806.6136203590481</v>
+        <v>959.2317925660203</v>
       </c>
       <c r="U2" t="n">
-        <v>806.6136203590481</v>
+        <v>959.2317925660203</v>
       </c>
       <c r="V2" t="n">
-        <v>591.2150915439161</v>
+        <v>959.2317925660203</v>
       </c>
       <c r="W2" t="n">
-        <v>375.8165627287841</v>
+        <v>959.2317925660203</v>
       </c>
       <c r="X2" t="n">
-        <v>375.8165627287841</v>
+        <v>717.0015419180354</v>
       </c>
       <c r="Y2" t="n">
-        <v>160.4180339136521</v>
+        <v>474.7712912700505</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.05956348215845</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="C3" t="n">
-        <v>17.05956348215845</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="D3" t="n">
-        <v>17.05956348215845</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="E3" t="n">
-        <v>17.05956348215845</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="F3" t="n">
-        <v>17.05956348215845</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="G3" t="n">
-        <v>17.05956348215845</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="H3" t="n">
-        <v>17.05956348215845</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="I3" t="n">
-        <v>17.05956348215845</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="J3" t="n">
-        <v>17.05956348215845</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="K3" t="n">
-        <v>76.80456507108148</v>
+        <v>86.79245551467741</v>
       </c>
       <c r="L3" t="n">
-        <v>203.4616338536806</v>
+        <v>224.0220535303713</v>
       </c>
       <c r="M3" t="n">
-        <v>370.6213272672513</v>
+        <v>403.5193898849761</v>
       </c>
       <c r="N3" t="n">
-        <v>581.7334253589622</v>
+        <v>602.1761315376407</v>
       </c>
       <c r="O3" t="n">
-        <v>737.0653851695868</v>
+        <v>761.6884442064013</v>
       </c>
       <c r="P3" t="n">
-        <v>836.4568250845134</v>
+        <v>936.4948513640434</v>
       </c>
       <c r="Q3" t="n">
-        <v>852.9781741079227</v>
+        <v>959.2317925660203</v>
       </c>
       <c r="R3" t="n">
-        <v>852.9781741079227</v>
+        <v>938.1198929682071</v>
       </c>
       <c r="S3" t="n">
-        <v>852.9781741079227</v>
+        <v>788.6531038308418</v>
       </c>
       <c r="T3" t="n">
-        <v>655.7886271488273</v>
+        <v>788.6531038308418</v>
       </c>
       <c r="U3" t="n">
-        <v>440.3900983336953</v>
+        <v>788.6531038308418</v>
       </c>
       <c r="V3" t="n">
-        <v>440.3095925028233</v>
+        <v>788.6531038308418</v>
       </c>
       <c r="W3" t="n">
-        <v>224.9110636876913</v>
+        <v>546.4228531828569</v>
       </c>
       <c r="X3" t="n">
-        <v>17.05956348215845</v>
+        <v>338.5713529773241</v>
       </c>
       <c r="Y3" t="n">
-        <v>17.05956348215845</v>
+        <v>130.8110542123702</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>455.931180462551</v>
+        <v>123.5007508459231</v>
       </c>
       <c r="C4" t="n">
-        <v>455.931180462551</v>
+        <v>123.5007508459231</v>
       </c>
       <c r="D4" t="n">
-        <v>354.4404852540926</v>
+        <v>123.5007508459231</v>
       </c>
       <c r="E4" t="n">
-        <v>206.5273916716994</v>
+        <v>123.5007508459231</v>
       </c>
       <c r="F4" t="n">
-        <v>206.5273916716994</v>
+        <v>123.5007508459231</v>
       </c>
       <c r="G4" t="n">
-        <v>37.87889540591735</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="H4" t="n">
-        <v>37.87889540591735</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="I4" t="n">
-        <v>37.87889540591735</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="J4" t="n">
-        <v>17.05956348215845</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="K4" t="n">
-        <v>113.3646722991124</v>
+        <v>120.2325654469302</v>
       </c>
       <c r="L4" t="n">
-        <v>286.206411624077</v>
+        <v>305.0655603477485</v>
       </c>
       <c r="M4" t="n">
-        <v>485.0769154194993</v>
+        <v>510.3351610669865</v>
       </c>
       <c r="N4" t="n">
-        <v>684.6533395539515</v>
+        <v>656.2710011584459</v>
       </c>
       <c r="O4" t="n">
-        <v>852.9781741079227</v>
+        <v>830.3658965470447</v>
       </c>
       <c r="P4" t="n">
-        <v>852.9781741079227</v>
+        <v>955.8134731456604</v>
       </c>
       <c r="Q4" t="n">
-        <v>852.9781741079227</v>
+        <v>959.2317925660203</v>
       </c>
       <c r="R4" t="n">
-        <v>852.9781741079227</v>
+        <v>828.7538312854231</v>
       </c>
       <c r="S4" t="n">
-        <v>852.9781741079227</v>
+        <v>828.7538312854231</v>
       </c>
       <c r="T4" t="n">
-        <v>852.9781741079227</v>
+        <v>828.7538312854231</v>
       </c>
       <c r="U4" t="n">
-        <v>852.9781741079227</v>
+        <v>586.5235806374382</v>
       </c>
       <c r="V4" t="n">
-        <v>852.9781741079227</v>
+        <v>344.2933299894532</v>
       </c>
       <c r="W4" t="n">
-        <v>852.9781741079227</v>
+        <v>344.2933299894532</v>
       </c>
       <c r="X4" t="n">
-        <v>852.9781741079227</v>
+        <v>344.2933299894532</v>
       </c>
       <c r="Y4" t="n">
-        <v>637.5796452927907</v>
+        <v>123.5007508459231</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>230.5252935463208</v>
+        <v>329.3168919117816</v>
       </c>
       <c r="C5" t="n">
-        <v>230.5252935463208</v>
+        <v>329.3168919117816</v>
       </c>
       <c r="D5" t="n">
-        <v>154.184840337885</v>
+        <v>329.3168919117816</v>
       </c>
       <c r="E5" t="n">
-        <v>154.184840337885</v>
+        <v>329.3168919117816</v>
       </c>
       <c r="F5" t="n">
-        <v>147.2393395886816</v>
+        <v>36.09415310941102</v>
       </c>
       <c r="G5" t="n">
-        <v>134.473104787204</v>
+        <v>23.22324091314775</v>
       </c>
       <c r="H5" t="n">
-        <v>134.473104787204</v>
+        <v>23.22324091314775</v>
       </c>
       <c r="I5" t="n">
-        <v>25.61889667580205</v>
+        <v>23.22324091314775</v>
       </c>
       <c r="J5" t="n">
-        <v>70.23995380345366</v>
+        <v>59.1367338295197</v>
       </c>
       <c r="K5" t="n">
-        <v>187.8538698679729</v>
+        <v>163.7002683444956</v>
       </c>
       <c r="L5" t="n">
-        <v>370.6660947378249</v>
+        <v>330.3223409084642</v>
       </c>
       <c r="M5" t="n">
-        <v>605.7493564943223</v>
+        <v>547.3909387162867</v>
       </c>
       <c r="N5" t="n">
-        <v>849.2503195768563</v>
+        <v>772.585741753705</v>
       </c>
       <c r="O5" t="n">
-        <v>1065.846112893862</v>
+        <v>971.8955472416917</v>
       </c>
       <c r="P5" t="n">
-        <v>1216.204610510189</v>
+        <v>1107.500854171413</v>
       </c>
       <c r="Q5" t="n">
-        <v>1280.944833790102</v>
+        <v>1161.162045657387</v>
       </c>
       <c r="R5" t="n">
-        <v>1280.944833790102</v>
+        <v>1161.162045657387</v>
       </c>
       <c r="S5" t="n">
-        <v>1131.136340614961</v>
+        <v>1161.162045657387</v>
       </c>
       <c r="T5" t="n">
-        <v>1131.136340614961</v>
+        <v>947.134661769126</v>
       </c>
       <c r="U5" t="n">
-        <v>877.4671287938473</v>
+        <v>947.134661769126</v>
       </c>
       <c r="V5" t="n">
-        <v>553.9962111700841</v>
+        <v>653.9119229667554</v>
       </c>
       <c r="W5" t="n">
-        <v>553.9962111700841</v>
+        <v>653.9119229667554</v>
       </c>
       <c r="X5" t="n">
-        <v>230.5252935463208</v>
+        <v>653.9119229667554</v>
       </c>
       <c r="Y5" t="n">
-        <v>230.5252935463208</v>
+        <v>622.5396307141521</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>174.5533063370533</v>
+        <v>477.9296635529695</v>
       </c>
       <c r="C6" t="n">
-        <v>174.5533063370533</v>
+        <v>477.9296635529695</v>
       </c>
       <c r="D6" t="n">
-        <v>25.61889667580205</v>
+        <v>328.9952538917183</v>
       </c>
       <c r="E6" t="n">
-        <v>25.61889667580205</v>
+        <v>169.7577988862628</v>
       </c>
       <c r="F6" t="n">
-        <v>25.61889667580205</v>
+        <v>23.22324091314775</v>
       </c>
       <c r="G6" t="n">
-        <v>25.61889667580205</v>
+        <v>23.22324091314775</v>
       </c>
       <c r="H6" t="n">
-        <v>25.61889667580205</v>
+        <v>23.22324091314775</v>
       </c>
       <c r="I6" t="n">
-        <v>25.61889667580205</v>
+        <v>23.22324091314775</v>
       </c>
       <c r="J6" t="n">
-        <v>33.37704565919499</v>
+        <v>25.7952243050893</v>
       </c>
       <c r="K6" t="n">
-        <v>124.7917826965274</v>
+        <v>108.3459783063294</v>
       </c>
       <c r="L6" t="n">
-        <v>294.0327190776138</v>
+        <v>265.668195611941</v>
       </c>
       <c r="M6" t="n">
-        <v>510.8857774273447</v>
+        <v>531.3350556042669</v>
       </c>
       <c r="N6" t="n">
-        <v>827.919623790395</v>
+        <v>818.7226619044702</v>
       </c>
       <c r="O6" t="n">
-        <v>1022.509586642116</v>
+        <v>1000.252231792101</v>
       </c>
       <c r="P6" t="n">
-        <v>1239.388419973513</v>
+        <v>1126.612649313227</v>
       </c>
       <c r="Q6" t="n">
-        <v>1280.944833790102</v>
+        <v>1161.162045657387</v>
       </c>
       <c r="R6" t="n">
-        <v>1269.172462266484</v>
+        <v>1161.162045657387</v>
       </c>
       <c r="S6" t="n">
-        <v>1122.499746412124</v>
+        <v>1161.162045657387</v>
       </c>
       <c r="T6" t="n">
-        <v>1122.499746412124</v>
+        <v>1161.162045657387</v>
       </c>
       <c r="U6" t="n">
-        <v>1040.009608522598</v>
+        <v>933.0294698383386</v>
       </c>
       <c r="V6" t="n">
-        <v>804.8575002908558</v>
+        <v>853.9965007785704</v>
       </c>
       <c r="W6" t="n">
-        <v>550.6201435626542</v>
+        <v>853.9965007785704</v>
       </c>
       <c r="X6" t="n">
-        <v>342.7686433571213</v>
+        <v>646.1450005730376</v>
       </c>
       <c r="Y6" t="n">
-        <v>342.7686433571213</v>
+        <v>646.1450005730376</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>242.4501571327311</v>
+        <v>23.22324091314775</v>
       </c>
       <c r="C7" t="n">
-        <v>242.4501571327311</v>
+        <v>23.22324091314775</v>
       </c>
       <c r="D7" t="n">
-        <v>242.4501571327311</v>
+        <v>23.22324091314775</v>
       </c>
       <c r="E7" t="n">
-        <v>242.4501571327311</v>
+        <v>23.22324091314775</v>
       </c>
       <c r="F7" t="n">
-        <v>95.56020963482078</v>
+        <v>23.22324091314775</v>
       </c>
       <c r="G7" t="n">
-        <v>95.56020963482078</v>
+        <v>23.22324091314775</v>
       </c>
       <c r="H7" t="n">
-        <v>95.56020963482078</v>
+        <v>23.22324091314775</v>
       </c>
       <c r="I7" t="n">
-        <v>25.61889667580205</v>
+        <v>23.22324091314775</v>
       </c>
       <c r="J7" t="n">
-        <v>25.61889667580205</v>
+        <v>23.22324091314775</v>
       </c>
       <c r="K7" t="n">
-        <v>141.027064716222</v>
+        <v>133.2846894279148</v>
       </c>
       <c r="L7" t="n">
-        <v>344.2362207693427</v>
+        <v>329.6518852993042</v>
       </c>
       <c r="M7" t="n">
-        <v>568.8809068957685</v>
+        <v>547.0826837276993</v>
       </c>
       <c r="N7" t="n">
-        <v>793.6186609135229</v>
+        <v>764.7780801730504</v>
       </c>
       <c r="O7" t="n">
-        <v>985.1840560939769</v>
+        <v>949.8387182967867</v>
       </c>
       <c r="P7" t="n">
-        <v>1125.580663386626</v>
+        <v>1084.669382195909</v>
       </c>
       <c r="Q7" t="n">
-        <v>1139.348916790957</v>
+        <v>1094.584064899865</v>
       </c>
       <c r="R7" t="n">
-        <v>1014.541366273596</v>
+        <v>1094.584064899865</v>
       </c>
       <c r="S7" t="n">
-        <v>1014.541366273596</v>
+        <v>888.523259631786</v>
       </c>
       <c r="T7" t="n">
-        <v>1014.541366273596</v>
+        <v>663.2322764837297</v>
       </c>
       <c r="U7" t="n">
-        <v>1014.541366273596</v>
+        <v>663.2322764837297</v>
       </c>
       <c r="V7" t="n">
-        <v>759.8568780677091</v>
+        <v>408.5477882778429</v>
       </c>
       <c r="W7" t="n">
-        <v>470.4397080307485</v>
+        <v>408.5477882778429</v>
       </c>
       <c r="X7" t="n">
-        <v>242.4501571327311</v>
+        <v>408.5477882778429</v>
       </c>
       <c r="Y7" t="n">
-        <v>242.4501571327311</v>
+        <v>204.8717057433875</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1251.46096678957</v>
+        <v>1228.647807131574</v>
       </c>
       <c r="C8" t="n">
-        <v>882.4984498491583</v>
+        <v>859.685290191162</v>
       </c>
       <c r="D8" t="n">
-        <v>524.2327512424079</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E8" t="n">
-        <v>524.2327512424079</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F8" t="n">
-        <v>113.2468464528003</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G8" t="n">
-        <v>101.5825002174932</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H8" t="n">
         <v>51.2467865680031</v>
@@ -4829,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>2308.758267664335</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V8" t="n">
-        <v>1977.695380320764</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="W8" t="n">
-        <v>1624.92672505065</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="X8" t="n">
-        <v>1251.46096678957</v>
+        <v>2005.386979171507</v>
       </c>
       <c r="Y8" t="n">
-        <v>1251.46096678957</v>
+        <v>1615.247647195695</v>
       </c>
     </row>
     <row r="9">
@@ -4857,43 +4859,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I9" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>423.1489515180662</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L9" t="n">
-        <v>1057.327935297104</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M9" t="n">
-        <v>1420.589954256325</v>
+        <v>956.2844025217532</v>
       </c>
       <c r="N9" t="n">
-        <v>1807.87508285327</v>
+        <v>1565.661695681274</v>
       </c>
       <c r="O9" t="n">
         <v>2199.840679460312</v>
@@ -4914,16 +4916,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>611.4838426768534</v>
+        <v>604.3445683049839</v>
       </c>
       <c r="C10" t="n">
-        <v>442.5476597489466</v>
+        <v>604.3445683049839</v>
       </c>
       <c r="D10" t="n">
-        <v>292.4310203366108</v>
+        <v>454.2279288926482</v>
       </c>
       <c r="E10" t="n">
-        <v>292.4310203366108</v>
+        <v>306.314835310255</v>
       </c>
       <c r="F10" t="n">
-        <v>145.5410728387004</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G10" t="n">
-        <v>145.5410728387004</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>145.5410728387004</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I10" t="n">
         <v>51.2467865680031</v>
@@ -4990,22 +4992,22 @@
         <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1337.233965749941</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1337.233965749941</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V10" t="n">
-        <v>1082.549477544054</v>
+        <v>825.137147448514</v>
       </c>
       <c r="W10" t="n">
-        <v>793.1323075070932</v>
+        <v>825.137147448514</v>
       </c>
       <c r="X10" t="n">
-        <v>793.1323075070932</v>
+        <v>825.137147448514</v>
       </c>
       <c r="Y10" t="n">
-        <v>793.1323075070932</v>
+        <v>604.3445683049839</v>
       </c>
     </row>
     <row r="11">
@@ -5036,7 +5038,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
@@ -5045,13 +5047,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5069,7 +5071,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5118,25 +5120,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>429.5088224239596</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L12" t="n">
-        <v>924.8344286397182</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M12" t="n">
-        <v>1522.21291626627</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>491.0125592675714</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D13" t="n">
-        <v>491.0125592675714</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>343.0994656851783</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5224,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2251.007271617388</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2031.40580664033</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1742.330579984527</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1487.64609177864</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="14">
@@ -5273,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5312,10 +5314,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5370,7 +5372,7 @@
         <v>1470.207143961552</v>
       </c>
       <c r="O15" t="n">
-        <v>2022.116874200839</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
         <v>2283.159972732779</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>951.777212765616</v>
+        <v>699.73118040114</v>
       </c>
       <c r="C16" t="n">
-        <v>782.8410298377091</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253734</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5461,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1689.976512844124</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1400.559342807163</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1172.569791909146</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>951.777212765616</v>
+        <v>881.3796452313798</v>
       </c>
     </row>
     <row r="17">
@@ -5507,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5546,16 +5548,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O18" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>734.6461798836013</v>
+        <v>869.9745311434712</v>
       </c>
       <c r="C19" t="n">
-        <v>565.7099969556945</v>
+        <v>869.9745311434712</v>
       </c>
       <c r="D19" t="n">
-        <v>565.7099969556945</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>417.7969033733013</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
         <v>317.6151975578602</v>
@@ -5695,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y19" t="n">
-        <v>916.2946447138411</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="20">
@@ -5732,37 +5734,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5786,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>1964.511902868375</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>801.6918836311989</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>801.6918836311989</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>651.5752442188632</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E22" t="n">
-        <v>503.6621506364701</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>356.7722031385597</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>189.5761038534396</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>983.3403484614387</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004712</v>
@@ -5975,31 +5977,31 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6020,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>95.58405025273903</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>95.58405025273903</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M24" t="n">
-        <v>692.9625378792909</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N24" t="n">
-        <v>1320.560501433898</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>1872.470231673185</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>789.7592298206043</v>
+        <v>3044.370838283061</v>
       </c>
       <c r="C25" t="n">
-        <v>620.8230468926974</v>
+        <v>2875.434655355155</v>
       </c>
       <c r="D25" t="n">
-        <v>470.7064074803617</v>
+        <v>2725.318015942819</v>
       </c>
       <c r="E25" t="n">
-        <v>322.7933138979686</v>
+        <v>2577.404922360426</v>
       </c>
       <c r="F25" t="n">
-        <v>175.9033664000583</v>
+        <v>2430.514974862515</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>2430.514974862515</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="U25" t="n">
-        <v>1782.643018104999</v>
+        <v>4218.903091397696</v>
       </c>
       <c r="V25" t="n">
-        <v>1527.958529899112</v>
+        <v>3964.218603191809</v>
       </c>
       <c r="W25" t="n">
-        <v>1238.541359862152</v>
+        <v>3674.801433154848</v>
       </c>
       <c r="X25" t="n">
-        <v>1010.551808964134</v>
+        <v>3446.811882256831</v>
       </c>
       <c r="Y25" t="n">
-        <v>789.7592298206043</v>
+        <v>3226.019303113301</v>
       </c>
     </row>
     <row r="26">
@@ -6218,34 +6220,34 @@
         <v>379.8308874362685</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6260,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615665</v>
       </c>
       <c r="C27" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334538</v>
       </c>
       <c r="D27" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673287</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667831</v>
       </c>
       <c r="F27" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694716</v>
       </c>
       <c r="G27" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740624</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.58852738579</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>2233.355914590557</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>2233.355914590557</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>2567.280686761778</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>3062.606292977537</v>
       </c>
       <c r="M27" t="n">
-        <v>1268.578514636218</v>
+        <v>3659.984780604088</v>
       </c>
       <c r="N27" t="n">
-        <v>1896.176478190825</v>
+        <v>4287.582744158695</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>4287.582744158695</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R27" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S27" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301205</v>
       </c>
       <c r="T27" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.415660022979</v>
       </c>
       <c r="U27" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566164</v>
       </c>
       <c r="V27" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334421</v>
       </c>
       <c r="W27" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.99811360622</v>
       </c>
       <c r="X27" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400687</v>
       </c>
       <c r="Y27" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635733</v>
       </c>
     </row>
     <row r="28">
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6418,16 +6420,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1613.067925832146</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1323.650755795185</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1095.661204897168</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>874.8686257536381</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6443,46 +6445,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6494,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>150.8995423128889</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913853</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M30" t="n">
-        <v>738.7889117913853</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N30" t="n">
-        <v>1366.386875345992</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1051.964939354869</v>
+        <v>3050.708758511721</v>
       </c>
       <c r="C31" t="n">
-        <v>883.0287564269624</v>
+        <v>2881.772575583814</v>
       </c>
       <c r="D31" t="n">
-        <v>732.9121170146267</v>
+        <v>2881.772575583814</v>
       </c>
       <c r="E31" t="n">
-        <v>584.9990234322336</v>
+        <v>2733.859482001421</v>
       </c>
       <c r="F31" t="n">
-        <v>438.1090759343232</v>
+        <v>2586.969534503511</v>
       </c>
       <c r="G31" t="n">
-        <v>270.9129766492031</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>4404.185983673937</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>4115.110757018135</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>3860.426268812248</v>
       </c>
       <c r="W31" t="n">
-        <v>1500.747069396417</v>
+        <v>3571.009098775287</v>
       </c>
       <c r="X31" t="n">
-        <v>1272.757518498399</v>
+        <v>3343.01954787727</v>
       </c>
       <c r="Y31" t="n">
-        <v>1051.964939354869</v>
+        <v>3122.22696873374</v>
       </c>
     </row>
     <row r="32">
@@ -6683,25 +6685,25 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,7 +6712,7 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,31 +6721,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2149.810879820877</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3173.601046153952</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C34" t="n">
-        <v>3173.601046153952</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D34" t="n">
-        <v>3023.484406741616</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E34" t="n">
-        <v>2875.571313159223</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>2272.857469997002</v>
       </c>
       <c r="U34" t="n">
-        <v>4166.484834438346</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="V34" t="n">
-        <v>3911.80034623246</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W34" t="n">
-        <v>3622.383176195499</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X34" t="n">
-        <v>3394.393625297482</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y34" t="n">
-        <v>3173.601046153952</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="35">
@@ -6923,7 +6925,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,25 +6934,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7014,28 +7016,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N36" t="n">
-        <v>1670.092171589158</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>659.9487421954783</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
@@ -7120,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2343.157686942974</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2123.556221965915</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.792692443183</v>
+        <v>1834.480995310113</v>
       </c>
       <c r="V37" t="n">
-        <v>1501.108204237296</v>
+        <v>1579.796507104226</v>
       </c>
       <c r="W37" t="n">
-        <v>1501.108204237296</v>
+        <v>1290.379337067265</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>1062.389786169248</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>841.597207025718</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
@@ -7160,16 +7162,16 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7178,13 +7180,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7205,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7251,13 +7253,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M39" t="n">
         <v>680.0291294438176</v>
@@ -7306,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>835.5837926935558</v>
+        <v>984.9192356072716</v>
       </c>
       <c r="C40" t="n">
-        <v>835.5837926935558</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D40" t="n">
         <v>779.6143379232838</v>
@@ -7354,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1466.014387565343</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X40" t="n">
-        <v>1238.024836667326</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y40" t="n">
-        <v>1017.232257523796</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="41">
@@ -7385,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7439,22 +7441,22 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C42" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D42" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>2383.002557118213</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>2716.927329289434</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>3212.252935505192</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>3369.710724020924</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>3997.308687575531</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>3997.308687575531</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>4420.931837070599</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R42" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S42" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T42" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U42" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V42" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W42" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X42" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y42" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="43">
@@ -7543,7 +7545,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>929.7309773356195</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
         <v>929.7309773356195</v>
@@ -7597,22 +7599,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W43" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="X43" t="n">
-        <v>1332.172021309389</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>1111.379442165859</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7643,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7682,10 +7684,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
         <v>3094.515198591809</v>
@@ -7737,13 +7739,13 @@
         <v>3809.631423131744</v>
       </c>
       <c r="N45" t="n">
-        <v>3809.631423131744</v>
+        <v>4420.931837070599</v>
       </c>
       <c r="O45" t="n">
-        <v>4230.570347950413</v>
+        <v>4420.931837070599</v>
       </c>
       <c r="P45" t="n">
-        <v>4654.193497445481</v>
+        <v>4420.931837070599</v>
       </c>
       <c r="Q45" t="n">
         <v>4654.193497445481</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>874.8686257536381</v>
+        <v>3342.537229081859</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257312</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T46" t="n">
-        <v>2156.827640693835</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U46" t="n">
-        <v>1867.752414038033</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="V46" t="n">
-        <v>1613.067925832146</v>
+        <v>3966.646661122954</v>
       </c>
       <c r="W46" t="n">
-        <v>1323.650755795185</v>
+        <v>3966.646661122954</v>
       </c>
       <c r="X46" t="n">
-        <v>1095.661204897168</v>
+        <v>3738.657110224937</v>
       </c>
       <c r="Y46" t="n">
-        <v>874.8686257536381</v>
+        <v>3517.864531081407</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>10.88007489328488</v>
+        <v>6.233205181928398</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8067,13 +8069,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>25.37327280497686</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>7.479698001439942</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>66.78462588923563</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8140,19 +8142,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>156.4928046979009</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
         <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>171.8177168444618</v>
+        <v>111.3252676074468</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>13.27899488396017</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8237,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>48.23267925886492</v>
+        <v>54.74236624506787</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8301,16 +8303,16 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>63.35594407476106</v>
       </c>
       <c r="N6" t="n">
-        <v>80.84109889845305</v>
+        <v>65.31631277125507</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>80.84474649697555</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8529,22 +8531,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>342.9044714621885</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>224.3355197601769</v>
       </c>
       <c r="O9" t="n">
-        <v>60.50016306149536</v>
+        <v>305.1601501039157</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -23416,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>144.634190040853</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>53.40527886852264</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>72.68610972170686</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>184.0188038644581</v>
       </c>
     </row>
     <row r="17">
@@ -23890,19 +23892,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>59.15888173022684</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>46.24115926564451</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>105.0969227051396</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>45.49286644881082</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24379,7 +24381,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>129.6605885985404</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>93.3145926077903</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24598,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>45.44677382459312</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24658,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>177.5728945814936</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24835,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>109.0289520621383</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24853,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>46.23519869957046</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25072,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25120,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>45.04089287986264</v>
       </c>
       <c r="U34" t="n">
-        <v>231.8866226476543</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25360,22 +25362,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>144.6341900408523</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>66.73277020259223</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25546,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>112.6104454096923</v>
       </c>
       <c r="D40" t="n">
-        <v>93.20571279564305</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25606,10 +25608,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25786,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25837,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,7 +25851,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>125.1956044930016</v>
+        <v>75.03697526434118</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>6.25795120238422</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>111.1976478713721</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>754326.337914145</v>
+        <v>755753.7795564607</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>757663.5979745374</v>
+        <v>757222.7954393406</v>
       </c>
     </row>
     <row r="4">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>738630.8190212518</v>
+        <v>738630.8190212519</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>738630.8190212519</v>
+        <v>738630.8190212518</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>738630.8190212519</v>
+        <v>738630.8190212518</v>
       </c>
     </row>
     <row r="14">
@@ -26311,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846406</v>
+        <v>697885.5043846404</v>
       </c>
       <c r="C2" t="n">
         <v>697885.504384641</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846406</v>
+        <v>697885.5043846407</v>
       </c>
       <c r="E2" t="n">
+        <v>686074.6097365053</v>
+      </c>
+      <c r="F2" t="n">
         <v>686074.6097365055</v>
       </c>
-      <c r="F2" t="n">
-        <v>686074.6097365057</v>
-      </c>
       <c r="G2" t="n">
-        <v>686074.6097365053</v>
+        <v>686074.6097365052</v>
       </c>
       <c r="H2" t="n">
         <v>686074.6097365054</v>
@@ -26335,22 +26337,22 @@
         <v>686074.6097365055</v>
       </c>
       <c r="J2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="K2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="L2" t="n">
         <v>686074.6097365058</v>
       </c>
-      <c r="K2" t="n">
-        <v>686074.6097365053</v>
-      </c>
-      <c r="L2" t="n">
-        <v>686074.6097365057</v>
-      </c>
       <c r="M2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="N2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365059</v>
       </c>
       <c r="O2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365059</v>
       </c>
       <c r="P2" t="n">
         <v>686074.6097365055</v>
@@ -26363,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>621309.9391332068</v>
+        <v>652246.4444800895</v>
       </c>
       <c r="C3" t="n">
-        <v>118433.6817166216</v>
+        <v>55881.32342210974</v>
       </c>
       <c r="D3" t="n">
-        <v>331901.1145228024</v>
+        <v>363279.8866276236</v>
       </c>
       <c r="E3" t="n">
         <v>507485.4416245457</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>55794.15534657331</v>
+        <v>62744.31078353589</v>
       </c>
       <c r="K3" t="n">
-        <v>27536.23081727082</v>
+        <v>12992.59634440474</v>
       </c>
       <c r="L3" t="n">
-        <v>81077.35350883822</v>
+        <v>88656.3399166624</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289268</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>269041.6482059988</v>
+        <v>261062.8075060263</v>
       </c>
       <c r="C4" t="n">
-        <v>237201.8650125506</v>
+        <v>246054.6603431037</v>
       </c>
       <c r="D4" t="n">
-        <v>143951.0939828189</v>
+        <v>143951.0939828188</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
@@ -26439,22 +26441,22 @@
         <v>12996.86414683044</v>
       </c>
       <c r="J4" t="n">
-        <v>12996.86414683043</v>
+        <v>12996.86414683048</v>
       </c>
       <c r="K4" t="n">
-        <v>12996.8641468305</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="L4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683049</v>
       </c>
       <c r="M4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="N4" t="n">
-        <v>12996.86414683048</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="O4" t="n">
-        <v>12996.86414683048</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="P4" t="n">
         <v>12996.86414683044</v>
@@ -26467,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59032.15660993008</v>
+        <v>61145.70223437332</v>
       </c>
       <c r="C5" t="n">
-        <v>67545.06256179255</v>
+        <v>65162.40123302706</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-251498.2395644951</v>
+        <v>-276569.4498358487</v>
       </c>
       <c r="C6" t="n">
-        <v>274704.8950936762</v>
+        <v>330787.1193864005</v>
       </c>
       <c r="D6" t="n">
-        <v>129095.5234391746</v>
+        <v>97716.75133435361</v>
       </c>
       <c r="E6" t="n">
-        <v>64469.77414122228</v>
+        <v>64469.77414122205</v>
       </c>
       <c r="F6" t="n">
-        <v>571955.2157657682</v>
+        <v>571955.2157657681</v>
       </c>
       <c r="G6" t="n">
-        <v>571955.2157657678</v>
+        <v>571955.2157657677</v>
       </c>
       <c r="H6" t="n">
         <v>571955.215765768</v>
@@ -26543,22 +26545,22 @@
         <v>571955.2157657681</v>
       </c>
       <c r="J6" t="n">
-        <v>516161.0604191949</v>
+        <v>509210.904982232</v>
       </c>
       <c r="K6" t="n">
-        <v>544418.9849484969</v>
+        <v>558962.6194213633</v>
       </c>
       <c r="L6" t="n">
-        <v>490877.8622569299</v>
+        <v>483298.8758491058</v>
       </c>
       <c r="M6" t="n">
-        <v>439347.9220368412</v>
+        <v>439347.9220368415</v>
       </c>
       <c r="N6" t="n">
-        <v>571955.2157657681</v>
+        <v>571955.2157657684</v>
       </c>
       <c r="O6" t="n">
-        <v>571955.215765768</v>
+        <v>571955.2157657684</v>
       </c>
       <c r="P6" t="n">
         <v>571955.2157657681</v>
@@ -26707,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.632408907794991e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26735,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>570.609557958241</v>
+        <v>593.476100338065</v>
       </c>
       <c r="C3" t="n">
-        <v>662.7110590909631</v>
+        <v>636.9329421575584</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175393</v>
@@ -26787,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>213.2445435269807</v>
+        <v>239.8079481415051</v>
       </c>
       <c r="C4" t="n">
-        <v>320.2362084475256</v>
+        <v>290.2905114143468</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000387</v>
@@ -26929,10 +26931,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.632408907794991e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-6.632408907794991e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26957,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>570.609557958241</v>
+        <v>593.476100338065</v>
       </c>
       <c r="C3" t="n">
-        <v>92.10150113272209</v>
+        <v>43.45684181949343</v>
       </c>
       <c r="D3" t="n">
-        <v>271.3538330265762</v>
+        <v>297.1319499599809</v>
       </c>
       <c r="E3" t="n">
         <v>433.9106082241344</v>
@@ -27009,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>213.2445435269807</v>
+        <v>239.8079481415051</v>
       </c>
       <c r="C4" t="n">
-        <v>106.9916649205449</v>
+        <v>50.48256327284173</v>
       </c>
       <c r="D4" t="n">
-        <v>320.3486236525131</v>
+        <v>350.2943206856919</v>
       </c>
       <c r="E4" t="n">
         <v>532.1234559996096</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>213.2445435269806</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="K4" t="n">
-        <v>106.9916649205447</v>
+        <v>50.48256327284196</v>
       </c>
       <c r="L4" t="n">
-        <v>320.3486236525135</v>
+        <v>350.2943206856917</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.632408907794991e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>213.2445435269807</v>
+        <v>239.8079481415051</v>
       </c>
       <c r="K4" t="n">
-        <v>106.9916649205449</v>
+        <v>50.48256327284173</v>
       </c>
       <c r="L4" t="n">
-        <v>320.3486236525131</v>
+        <v>350.2943206856919</v>
       </c>
       <c r="M4" t="n">
         <v>532.1234559996096</v>
@@ -27385,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>142.1224219307567</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>208.5701089646106</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>315.9823191592251</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>156.7476462617291</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T2" t="n">
-        <v>172.9277940273363</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1621402861816</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V2" t="n">
-        <v>114.5077149431542</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>135.9964251904323</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>129.923152536964</v>
       </c>
       <c r="Y2" t="n">
-        <v>172.9933951290729</v>
+        <v>146.4299905145485</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>56.02302947242811</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27470,13 +27472,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1161683026967</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H3" t="n">
-        <v>100.3818381362696</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I3" t="n">
-        <v>47.13922690828119</v>
+        <v>45.44580843958668</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.95454262003122</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>148.8857043306949</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U3" t="n">
-        <v>12.61609191843402</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V3" t="n">
-        <v>232.720886376862</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>38.45043963393894</v>
+        <v>11.88703501941453</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27534,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>48.13968476183852</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>63.64782270991374</v>
       </c>
       <c r="H4" t="n">
-        <v>153.0787110700107</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I4" t="n">
-        <v>124.5065992268343</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>17.695841881769</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>131.0272459073095</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>206.0844911090059</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T4" t="n">
-        <v>223.5490895554885</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2629038261999</v>
+        <v>46.4527065165919</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>12.32969518232292</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>5.340109825114126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>92.44333024913374</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>279.1059929443315</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>116.5855343273646</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>312.1904216779166</v>
+        <v>313.2517287735718</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>111.7608855401375</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>150.6718910157313</v>
       </c>
       <c r="T5" t="n">
-        <v>211.4334670066612</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1408101525697</v>
       </c>
       <c r="V5" t="n">
-        <v>7.516050022609306</v>
+        <v>37.46174705578807</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>49.49489223094344</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>355.1793693259763</v>
       </c>
     </row>
     <row r="6">
@@ -27701,19 +27703,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.9180631870527</v>
+        <v>135.9735104574378</v>
       </c>
       <c r="H6" t="n">
-        <v>98.46855978255023</v>
+        <v>99.00406368337435</v>
       </c>
       <c r="I6" t="n">
-        <v>40.3185025319428</v>
+        <v>42.22754232370909</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,22 +27742,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>15.0972423679035</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>146.235897424241</v>
       </c>
       <c r="T6" t="n">
-        <v>194.4191488523254</v>
+        <v>194.6426402623424</v>
       </c>
       <c r="U6" t="n">
-        <v>144.1823657034922</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>154.5579477802547</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27783,19 +27785,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.7959266289505</v>
+        <v>166.8424117578468</v>
       </c>
       <c r="H7" t="n">
-        <v>151.6020673305385</v>
+        <v>152.0153623856348</v>
       </c>
       <c r="I7" t="n">
-        <v>50.27008028679849</v>
+        <v>120.9099147197632</v>
       </c>
       <c r="J7" t="n">
-        <v>8.868952140436392</v>
+        <v>12.15545075340506</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>125.6496154441976</v>
       </c>
       <c r="S7" t="n">
-        <v>203.1900881963595</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>222.8394550385642</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2538446621541</v>
+        <v>286.2563802146393</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>16.94533164298394</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27870,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>251.1861960494101</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247047</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>148.4586753211356</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>144.9517841271313</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>11.44525179591021</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,22 +28064,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29272,25 +29274,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>6.632408907794991e-14</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>6.632408907794991e-14</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>6.632408907794991e-14</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>6.632408907794991e-14</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>6.632408907794991e-14</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>6.632408907794991e-14</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>6.632408907794991e-14</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29323,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>6.632408907794991e-14</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>6.632408907794991e-14</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>6.632408907794991e-14</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>6.632408907794991e-14</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>6.632408907794991e-14</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>6.632408907794991e-14</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>6.632408907794991e-14</v>
       </c>
     </row>
     <row r="27">
@@ -29746,7 +29748,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.293907770686394</v>
+        <v>2.385833569198249</v>
       </c>
       <c r="H2" t="n">
-        <v>23.49248295654204</v>
+        <v>24.43391804055157</v>
       </c>
       <c r="I2" t="n">
-        <v>88.4358793293873</v>
+        <v>91.97984867651559</v>
       </c>
       <c r="J2" t="n">
-        <v>194.6925546522945</v>
+        <v>202.4946418937401</v>
       </c>
       <c r="K2" t="n">
-        <v>291.7936705854496</v>
+        <v>303.4869768779021</v>
       </c>
       <c r="L2" t="n">
-        <v>361.9958505225935</v>
+        <v>376.502430971253</v>
       </c>
       <c r="M2" t="n">
-        <v>402.7901328395376</v>
+        <v>418.9314987074824</v>
       </c>
       <c r="N2" t="n">
-        <v>409.3076982930003</v>
+        <v>425.710248335967</v>
       </c>
       <c r="O2" t="n">
-        <v>386.4976528982375</v>
+        <v>401.9861157822518</v>
       </c>
       <c r="P2" t="n">
-        <v>329.8668048094171</v>
+        <v>343.08584954267</v>
       </c>
       <c r="Q2" t="n">
-        <v>247.7162327717105</v>
+        <v>257.6431848457576</v>
       </c>
       <c r="R2" t="n">
-        <v>144.0946840003793</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>52.27242332451626</v>
+        <v>54.36718245810516</v>
       </c>
       <c r="T2" t="n">
-        <v>10.0415812661797</v>
+        <v>10.44398644916534</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1835126216549115</v>
+        <v>0.1908666855358599</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.227348860513952</v>
+        <v>1.276533498840366</v>
       </c>
       <c r="H3" t="n">
-        <v>11.85360610022686</v>
+        <v>12.32862615985301</v>
       </c>
       <c r="I3" t="n">
-        <v>42.25740594313389</v>
+        <v>43.9508244118284</v>
       </c>
       <c r="J3" t="n">
-        <v>115.9575517733818</v>
+        <v>120.6044214847383</v>
       </c>
       <c r="K3" t="n">
-        <v>198.1899254278166</v>
+        <v>206.1321659070428</v>
       </c>
       <c r="L3" t="n">
-        <v>266.4908128936106</v>
+        <v>277.1701353512822</v>
       </c>
       <c r="M3" t="n">
-        <v>310.9822090872413</v>
+        <v>323.4444746842453</v>
       </c>
       <c r="N3" t="n">
-        <v>319.2129828053371</v>
+        <v>332.0050874900653</v>
       </c>
       <c r="O3" t="n">
-        <v>292.0175159486859</v>
+        <v>303.7197925947077</v>
       </c>
       <c r="P3" t="n">
-        <v>234.3698012677915</v>
+        <v>243.7619099671573</v>
       </c>
       <c r="Q3" t="n">
-        <v>156.6700054227986</v>
+        <v>162.9483813607457</v>
       </c>
       <c r="R3" t="n">
-        <v>76.20329153261191</v>
+        <v>79.25705355080802</v>
       </c>
       <c r="S3" t="n">
-        <v>22.79746677314292</v>
+        <v>23.71104985784626</v>
       </c>
       <c r="T3" t="n">
-        <v>4.947077205317201</v>
+        <v>5.145325813308316</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08074663556012848</v>
+        <v>0.0839824670289715</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.028968055334533</v>
+        <v>1.070202803888314</v>
       </c>
       <c r="H4" t="n">
-        <v>9.148461437428853</v>
+        <v>9.515075838207014</v>
       </c>
       <c r="I4" t="n">
-        <v>30.94387570042396</v>
+        <v>32.1839170478413</v>
       </c>
       <c r="J4" t="n">
-        <v>72.74804151215147</v>
+        <v>75.66333823490378</v>
       </c>
       <c r="K4" t="n">
-        <v>119.5473795197757</v>
+        <v>124.3381075790241</v>
       </c>
       <c r="L4" t="n">
-        <v>152.9794870630996</v>
+        <v>159.1099695889953</v>
       </c>
       <c r="M4" t="n">
-        <v>161.2954198012123</v>
+        <v>167.7591540676927</v>
       </c>
       <c r="N4" t="n">
-        <v>157.4601752313291</v>
+        <v>163.7702163441091</v>
       </c>
       <c r="O4" t="n">
-        <v>145.439957494012</v>
+        <v>151.2683017714137</v>
       </c>
       <c r="P4" t="n">
-        <v>124.4490091651874</v>
+        <v>129.436164572092</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>89.6148911510478</v>
       </c>
       <c r="R4" t="n">
-        <v>46.26614546985999</v>
+        <v>48.12020970937817</v>
       </c>
       <c r="S4" t="n">
-        <v>17.93210692796635</v>
+        <v>18.65071613685361</v>
       </c>
       <c r="T4" t="n">
-        <v>4.396499872793003</v>
+        <v>4.572684707522794</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05612553029097458</v>
+        <v>0.05837469839390809</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.664165061672211</v>
+        <v>2.560534440834404</v>
       </c>
       <c r="H5" t="n">
-        <v>27.28438043785054</v>
+        <v>26.22307334219534</v>
       </c>
       <c r="I5" t="n">
-        <v>102.710223540118</v>
+        <v>98.71500403026845</v>
       </c>
       <c r="J5" t="n">
-        <v>226.1176794031021</v>
+        <v>217.3221599977692</v>
       </c>
       <c r="K5" t="n">
-        <v>338.8917864636869</v>
+        <v>325.7095828782896</v>
       </c>
       <c r="L5" t="n">
-        <v>420.4252279698379</v>
+        <v>404.0715387719755</v>
       </c>
       <c r="M5" t="n">
-        <v>467.804073385351</v>
+        <v>449.6074431341643</v>
       </c>
       <c r="N5" t="n">
-        <v>475.3736323668272</v>
+        <v>456.8825616141851</v>
       </c>
       <c r="O5" t="n">
-        <v>448.8818410348242</v>
+        <v>431.421247268138</v>
       </c>
       <c r="P5" t="n">
-        <v>383.1102660747914</v>
+        <v>368.2080532600386</v>
       </c>
       <c r="Q5" t="n">
-        <v>287.6998548036552</v>
+        <v>276.5089135976564</v>
       </c>
       <c r="R5" t="n">
-        <v>167.3528585552672</v>
+        <v>160.8431715690643</v>
       </c>
       <c r="S5" t="n">
-        <v>60.70966134285558</v>
+        <v>58.34817857051403</v>
       </c>
       <c r="T5" t="n">
-        <v>11.66238255747011</v>
+        <v>11.20873951475261</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2131332049337769</v>
+        <v>0.2048427552667522</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.425453976157921</v>
+        <v>1.370006705772862</v>
       </c>
       <c r="H6" t="n">
-        <v>13.76688445394624</v>
+        <v>13.23138055312211</v>
       </c>
       <c r="I6" t="n">
-        <v>49.07813031947227</v>
+        <v>47.16909052770598</v>
       </c>
       <c r="J6" t="n">
-        <v>134.674140791306</v>
+        <v>129.4355896888299</v>
       </c>
       <c r="K6" t="n">
-        <v>230.1795571938867</v>
+        <v>221.2260389756116</v>
       </c>
       <c r="L6" t="n">
-        <v>309.5048205688503</v>
+        <v>297.4657103916031</v>
       </c>
       <c r="M6" t="n">
-        <v>361.1775272045749</v>
+        <v>347.1284534758693</v>
       </c>
       <c r="N6" t="n">
-        <v>370.7368216324058</v>
+        <v>356.315910726425</v>
       </c>
       <c r="O6" t="n">
-        <v>339.1517624764856</v>
+        <v>325.9594463511422</v>
       </c>
       <c r="P6" t="n">
-        <v>272.1991895349279</v>
+        <v>261.6111927892055</v>
       </c>
       <c r="Q6" t="n">
-        <v>181.9579496583339</v>
+        <v>174.8801542316376</v>
       </c>
       <c r="R6" t="n">
-        <v>88.50318634426111</v>
+        <v>85.06059178473963</v>
       </c>
       <c r="S6" t="n">
-        <v>26.47718240802101</v>
+        <v>25.44727367959677</v>
       </c>
       <c r="T6" t="n">
-        <v>5.745579842496178</v>
+        <v>5.522088432479207</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09377986685249481</v>
+        <v>0.09013202011663565</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.195052729508294</v>
+        <v>1.14856760061199</v>
       </c>
       <c r="H7" t="n">
-        <v>10.62510517690102</v>
+        <v>10.2118101218048</v>
       </c>
       <c r="I7" t="n">
-        <v>35.93849481103125</v>
+        <v>34.54056020749514</v>
       </c>
       <c r="J7" t="n">
-        <v>84.49022797623638</v>
+        <v>81.20372936326771</v>
       </c>
       <c r="K7" t="n">
-        <v>138.8433989374181</v>
+        <v>133.4426721438294</v>
       </c>
       <c r="L7" t="n">
-        <v>177.6717485307149</v>
+        <v>170.7606776400772</v>
       </c>
       <c r="M7" t="n">
-        <v>187.3299474082864</v>
+        <v>180.0431921577504</v>
       </c>
       <c r="N7" t="n">
-        <v>182.8756599619375</v>
+        <v>175.7621674645604</v>
       </c>
       <c r="O7" t="n">
-        <v>168.915271258136</v>
+        <v>162.3448095846839</v>
       </c>
       <c r="P7" t="n">
-        <v>144.5361955761667</v>
+        <v>138.9140305321992</v>
       </c>
       <c r="Q7" t="n">
-        <v>100.0693699227354</v>
+        <v>96.17687426579131</v>
       </c>
       <c r="R7" t="n">
-        <v>53.73391636498201</v>
+        <v>51.64377593297185</v>
       </c>
       <c r="S7" t="n">
-        <v>20.82650984061272</v>
+        <v>20.01640082157441</v>
       </c>
       <c r="T7" t="n">
-        <v>5.106134389717255</v>
+        <v>4.907516111705776</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0651846943368161</v>
+        <v>0.06264914185156319</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31838,10 +31840,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31850,16 +31852,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>187.2159464875253</v>
+        <v>565.6398038246476</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32090,10 +32092,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>535.8585467435948</v>
       </c>
       <c r="P15" t="n">
-        <v>397.6543049213403</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
@@ -32309,13 +32311,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32327,16 +32329,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>186.6878763515707</v>
       </c>
       <c r="P18" t="n">
-        <v>391.925066926462</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32467,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32546,10 +32548,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32561,19 +32563,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>426.9501404413636</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>543.0832917018711</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,19 +32785,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>433.9798411722591</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32804,13 +32806,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>548.8125296967492</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,19 +33022,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>677.2750468965965</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33041,7 +33043,7 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>305.6802133385881</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
@@ -33257,31 +33259,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>182.7118610708585</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>677.7372574190229</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33497,7 +33499,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33512,13 +33514,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>277.2922978908106</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>359.1374415194863</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33652,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33734,22 +33736,22 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>347.4623967873087</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>370.9642309107746</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33758,7 +33760,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33904,7 +33906,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
         <v>926.5868626460027</v>
@@ -33971,16 +33973,16 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>583.1096135868578</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -34205,25 +34207,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>301.1823051500298</v>
       </c>
       <c r="N42" t="n">
-        <v>290.6810969936921</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34232,7 +34234,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34390,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34457,16 +34459,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>748.8168776781358</v>
       </c>
       <c r="O45" t="n">
-        <v>567.7870775946146</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>13.64665012560826</v>
+        <v>21.44873736705381</v>
       </c>
       <c r="K2" t="n">
-        <v>71.70381954046906</v>
+        <v>83.39712583292152</v>
       </c>
       <c r="L2" t="n">
-        <v>126.2294355526062</v>
+        <v>140.7360160012658</v>
       </c>
       <c r="M2" t="n">
-        <v>172.4438996122649</v>
+        <v>188.5852654802096</v>
       </c>
       <c r="N2" t="n">
-        <v>179.8946346964094</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O2" t="n">
-        <v>156.3994414765508</v>
+        <v>171.8879043605651</v>
       </c>
       <c r="P2" t="n">
-        <v>98.63380905414755</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q2" t="n">
-        <v>25.41054289726102</v>
+        <v>35.33749497130813</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>60.34848645345761</v>
+        <v>68.29072693268384</v>
       </c>
       <c r="L3" t="n">
-        <v>127.9364331137364</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M3" t="n">
-        <v>168.848175165223</v>
+        <v>181.310440762227</v>
       </c>
       <c r="N3" t="n">
-        <v>213.2445435269807</v>
+        <v>200.6633754067319</v>
       </c>
       <c r="O3" t="n">
-        <v>156.9009695056814</v>
+        <v>161.1235481502632</v>
       </c>
       <c r="P3" t="n">
-        <v>100.3953938534613</v>
+        <v>176.5721284420627</v>
       </c>
       <c r="Q3" t="n">
-        <v>16.68823133677705</v>
+        <v>22.9666072747242</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>97.27788769389285</v>
+        <v>102.0686157531412</v>
       </c>
       <c r="L4" t="n">
-        <v>174.5876154797622</v>
+        <v>186.6999948493115</v>
       </c>
       <c r="M4" t="n">
-        <v>200.8792967630528</v>
+        <v>207.3430310295333</v>
       </c>
       <c r="N4" t="n">
-        <v>201.5923476105577</v>
+        <v>147.4099394863226</v>
       </c>
       <c r="O4" t="n">
-        <v>170.0250854080517</v>
+        <v>175.8534296854534</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>126.7147238369855</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.452847899353415</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>45.07177487641579</v>
+        <v>36.27625547108289</v>
       </c>
       <c r="K5" t="n">
-        <v>118.8019354187063</v>
+        <v>105.619731833309</v>
       </c>
       <c r="L5" t="n">
-        <v>184.6588129998506</v>
+        <v>168.3051238019883</v>
       </c>
       <c r="M5" t="n">
-        <v>237.4578401580783</v>
+        <v>219.2612099068916</v>
       </c>
       <c r="N5" t="n">
-        <v>245.9605687702363</v>
+        <v>227.4694980175942</v>
       </c>
       <c r="O5" t="n">
-        <v>218.7836296131374</v>
+        <v>201.3230358464512</v>
       </c>
       <c r="P5" t="n">
-        <v>151.8772703195218</v>
+        <v>136.975057504769</v>
       </c>
       <c r="Q5" t="n">
-        <v>65.39416492920574</v>
+        <v>54.20322372320689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>7.836514124639336</v>
+        <v>2.597963022163185</v>
       </c>
       <c r="K6" t="n">
-        <v>92.3381182195277</v>
+        <v>83.38460000125261</v>
       </c>
       <c r="L6" t="n">
-        <v>170.9504407889761</v>
+        <v>158.9113306117289</v>
       </c>
       <c r="M6" t="n">
-        <v>219.0434932825565</v>
+        <v>268.350363628612</v>
       </c>
       <c r="N6" t="n">
-        <v>320.2362084475256</v>
+        <v>290.2905114143468</v>
       </c>
       <c r="O6" t="n">
-        <v>196.5555180320412</v>
+        <v>183.3632019066977</v>
       </c>
       <c r="P6" t="n">
-        <v>219.0695286175732</v>
+        <v>127.6367853748752</v>
       </c>
       <c r="Q6" t="n">
-        <v>41.97617557231237</v>
+        <v>34.89838014561604</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>116.5739071115353</v>
+        <v>111.1731803179466</v>
       </c>
       <c r="L7" t="n">
-        <v>205.2617737910311</v>
+        <v>198.3507029003934</v>
       </c>
       <c r="M7" t="n">
-        <v>226.913824370127</v>
+        <v>219.627069119591</v>
       </c>
       <c r="N7" t="n">
-        <v>227.0078323411661</v>
+        <v>219.894339843789</v>
       </c>
       <c r="O7" t="n">
-        <v>193.5003991721757</v>
+        <v>186.9299374987236</v>
       </c>
       <c r="P7" t="n">
-        <v>141.8147548410602</v>
+        <v>136.1925897970927</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.90732667104103</v>
+        <v>10.01483101409693</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35249,22 +35251,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>640.5848321000387</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
         <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>615.5326193530509</v>
       </c>
       <c r="O9" t="n">
-        <v>395.9248450576184</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235323</v>
@@ -35486,10 +35488,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35498,16 +35500,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>55.87423440419198</v>
+        <v>434.2980917413143</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35738,10 +35740,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>393.2623022991504</v>
       </c>
       <c r="P15" t="n">
-        <v>263.67989750701</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
@@ -35887,7 +35889,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M17" t="n">
         <v>735.3001107902948</v>
@@ -35957,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35975,16 +35977,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>44.0916319071262</v>
       </c>
       <c r="P18" t="n">
-        <v>257.9506595121318</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36194,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36209,19 +36211,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>295.6084283580303</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36361,7 +36363,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
         <v>735.3001107902948</v>
@@ -36431,19 +36433,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>291.8458072502408</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36452,13 +36454,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>414.838122282419</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,19 +36670,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>535.1410129745782</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36689,7 +36691,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>171.7058059242579</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
@@ -36905,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>55.8742344041918</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>535.1410129745784</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,7 +37147,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37160,13 +37162,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>134.6960534463662</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37300,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37382,22 +37384,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>208.9080170074345</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>228.3679864663302</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37406,7 +37408,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37552,7 +37554,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O38" t="n">
         <v>696.488651224316</v>
@@ -37619,16 +37621,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>440.9755796648395</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37801,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>159.0482712280115</v>
       </c>
       <c r="N42" t="n">
-        <v>159.3393849103587</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -37880,7 +37882,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38038,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38105,16 +38107,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>617.4751655948025</v>
       </c>
       <c r="O45" t="n">
-        <v>425.1908331501702</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_20_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_20_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2953393.992988396</v>
+        <v>2949090.345717013</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>72.93385014149845</v>
       </c>
       <c r="E2" t="n">
-        <v>239.8079481415051</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>198.3059367771009</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>12.9169039459368</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>118.4960408938904</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>239.8079481415051</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>239.8079481415051</v>
+        <v>239.8079481415045</v>
       </c>
     </row>
     <row r="3">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>110.5101541774392</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>45.4458084395867</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.90078060183511</v>
+        <v>20.90078060183515</v>
       </c>
       <c r="S3" t="n">
-        <v>147.9721212459916</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -800,10 +800,10 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>239.8079481415051</v>
+        <v>14.28557167060166</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -825,13 +825,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>103.2729538446567</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -867,22 +867,22 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>239.8079481415051</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>239.8079481415051</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>85.66795755804525</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>290.2905114143468</v>
+        <v>290.2905114143483</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -907,13 +907,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>290.2905114143468</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.74220307430065</v>
+        <v>287.9615379738248</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>290.2905114143483</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -949,13 +949,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>211.8871100493787</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1408101525697</v>
       </c>
       <c r="V5" t="n">
-        <v>290.2905114143468</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>31.05856933007727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -980,13 +980,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>48.97773938790544</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>15.09724236790335</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8512500608582</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>78.24263936917053</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1056,16 +1056,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>12.15545075340489</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1104,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>204.0001972153979</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.0380733165757</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>42.35782667307389</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>201.6393217091108</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1138,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>48.52727932136369</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>221.2724253573335</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1302,7 +1302,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4692638957999577</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>156.6992473351573</v>
       </c>
     </row>
     <row r="11">
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444124</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605715268</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S13" t="n">
-        <v>127.6210071331219</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695349</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1767,16 +1767,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>78.91051008677961</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>34.56584948763671</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784649</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T18" t="n">
         <v>188.3046392154443</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>41.33703994142866</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>89.45659128798552</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>41.33703994142957</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>31.26260713376574</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2329,10 +2329,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H25" t="n">
-        <v>10.63412424768347</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881283</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2715,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>121.8000472740347</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>70.80302811979901</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2964,13 +2964,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3195,19 +3195,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>61.66004604094908</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>172.3645574474256</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>36.39209596079228</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>54.63637568893558</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3748,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3906,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>151.8555862333575</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3960,10 +3960,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>150.672680124696</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634796</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -4042,7 +4042,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>173.5740289795531</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4143,19 +4143,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,13 +4191,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>474.7712912700505</v>
+        <v>232.5410406220649</v>
       </c>
       <c r="C2" t="n">
-        <v>474.7712912700505</v>
+        <v>232.5410406220649</v>
       </c>
       <c r="D2" t="n">
-        <v>474.7712912700505</v>
+        <v>158.8704849235816</v>
       </c>
       <c r="E2" t="n">
-        <v>232.5410406220655</v>
+        <v>158.8704849235816</v>
       </c>
       <c r="F2" t="n">
-        <v>32.2320135744889</v>
+        <v>151.9249841743781</v>
       </c>
       <c r="G2" t="n">
-        <v>19.18463585132041</v>
+        <v>138.8776064512096</v>
       </c>
       <c r="H2" t="n">
-        <v>19.18463585132041</v>
+        <v>138.8776064512096</v>
       </c>
       <c r="I2" t="n">
-        <v>19.18463585132041</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="J2" t="n">
-        <v>40.41888584470428</v>
+        <v>40.41888584470354</v>
       </c>
       <c r="K2" t="n">
-        <v>122.9820404192965</v>
+        <v>122.9820404192956</v>
       </c>
       <c r="L2" t="n">
-        <v>262.3106962605497</v>
+        <v>262.3106962605484</v>
       </c>
       <c r="M2" t="n">
-        <v>449.0101090859572</v>
+        <v>449.0101090859557</v>
       </c>
       <c r="N2" t="n">
-        <v>643.3443219779394</v>
+        <v>643.3443219779376</v>
       </c>
       <c r="O2" t="n">
-        <v>813.5133472948989</v>
+        <v>813.5133472948969</v>
       </c>
       <c r="P2" t="n">
-        <v>924.2476725444253</v>
+        <v>924.247672544423</v>
       </c>
       <c r="Q2" t="n">
-        <v>959.2317925660203</v>
+        <v>959.2317925660179</v>
       </c>
       <c r="R2" t="n">
-        <v>959.2317925660203</v>
+        <v>959.2317925660179</v>
       </c>
       <c r="S2" t="n">
-        <v>959.2317925660203</v>
+        <v>959.2317925660179</v>
       </c>
       <c r="T2" t="n">
-        <v>959.2317925660203</v>
+        <v>959.2317925660179</v>
       </c>
       <c r="U2" t="n">
-        <v>959.2317925660203</v>
+        <v>959.2317925660179</v>
       </c>
       <c r="V2" t="n">
-        <v>959.2317925660203</v>
+        <v>717.0015419180336</v>
       </c>
       <c r="W2" t="n">
-        <v>959.2317925660203</v>
+        <v>717.0015419180336</v>
       </c>
       <c r="X2" t="n">
-        <v>717.0015419180354</v>
+        <v>717.0015419180336</v>
       </c>
       <c r="Y2" t="n">
-        <v>474.7712912700505</v>
+        <v>474.7712912700492</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.18463585132041</v>
+        <v>547.7143868088376</v>
       </c>
       <c r="C3" t="n">
-        <v>19.18463585132041</v>
+        <v>373.2613575277106</v>
       </c>
       <c r="D3" t="n">
-        <v>19.18463585132041</v>
+        <v>224.3269478664594</v>
       </c>
       <c r="E3" t="n">
-        <v>19.18463585132041</v>
+        <v>65.08949286100389</v>
       </c>
       <c r="F3" t="n">
-        <v>19.18463585132041</v>
+        <v>65.08949286100389</v>
       </c>
       <c r="G3" t="n">
-        <v>19.18463585132041</v>
+        <v>65.08949286100389</v>
       </c>
       <c r="H3" t="n">
-        <v>19.18463585132041</v>
+        <v>65.08949286100389</v>
       </c>
       <c r="I3" t="n">
-        <v>19.18463585132041</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="J3" t="n">
-        <v>19.18463585132041</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="K3" t="n">
-        <v>86.79245551467741</v>
+        <v>86.79245551467721</v>
       </c>
       <c r="L3" t="n">
-        <v>224.0220535303713</v>
+        <v>224.022053530371</v>
       </c>
       <c r="M3" t="n">
-        <v>403.5193898849761</v>
+        <v>403.5193898849756</v>
       </c>
       <c r="N3" t="n">
-        <v>602.1761315376407</v>
+        <v>602.17613153764</v>
       </c>
       <c r="O3" t="n">
-        <v>761.6884442064013</v>
+        <v>827.8052238367425</v>
       </c>
       <c r="P3" t="n">
-        <v>936.4948513640434</v>
+        <v>936.4948513640411</v>
       </c>
       <c r="Q3" t="n">
-        <v>959.2317925660203</v>
+        <v>959.2317925660179</v>
       </c>
       <c r="R3" t="n">
-        <v>938.1198929682071</v>
+        <v>938.1198929682047</v>
       </c>
       <c r="S3" t="n">
-        <v>788.6531038308418</v>
+        <v>938.1198929682047</v>
       </c>
       <c r="T3" t="n">
-        <v>788.6531038308418</v>
+        <v>938.1198929682047</v>
       </c>
       <c r="U3" t="n">
-        <v>788.6531038308418</v>
+        <v>938.1198929682047</v>
       </c>
       <c r="V3" t="n">
-        <v>788.6531038308418</v>
+        <v>938.1198929682047</v>
       </c>
       <c r="W3" t="n">
-        <v>546.4228531828569</v>
+        <v>923.6900225938596</v>
       </c>
       <c r="X3" t="n">
-        <v>338.5713529773241</v>
+        <v>923.6900225938596</v>
       </c>
       <c r="Y3" t="n">
-        <v>130.8110542123702</v>
+        <v>715.9297238289057</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>123.5007508459231</v>
+        <v>313.9876769316238</v>
       </c>
       <c r="C4" t="n">
-        <v>123.5007508459231</v>
+        <v>313.9876769316238</v>
       </c>
       <c r="D4" t="n">
-        <v>123.5007508459231</v>
+        <v>313.9876769316238</v>
       </c>
       <c r="E4" t="n">
-        <v>123.5007508459231</v>
+        <v>166.0745833492307</v>
       </c>
       <c r="F4" t="n">
-        <v>123.5007508459231</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="G4" t="n">
-        <v>19.18463585132041</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="H4" t="n">
-        <v>19.18463585132041</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="I4" t="n">
-        <v>19.18463585132041</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="J4" t="n">
-        <v>19.18463585132041</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="K4" t="n">
-        <v>120.2325654469302</v>
+        <v>120.2325654469301</v>
       </c>
       <c r="L4" t="n">
-        <v>305.0655603477485</v>
+        <v>305.0655603477483</v>
       </c>
       <c r="M4" t="n">
-        <v>510.3351610669865</v>
+        <v>453.8659557426993</v>
       </c>
       <c r="N4" t="n">
-        <v>656.2710011584459</v>
+        <v>659.6893205788035</v>
       </c>
       <c r="O4" t="n">
-        <v>830.3658965470447</v>
+        <v>833.7842159674024</v>
       </c>
       <c r="P4" t="n">
-        <v>955.8134731456604</v>
+        <v>959.2317925660179</v>
       </c>
       <c r="Q4" t="n">
-        <v>959.2317925660203</v>
+        <v>959.2317925660179</v>
       </c>
       <c r="R4" t="n">
-        <v>828.7538312854231</v>
+        <v>828.7538312854206</v>
       </c>
       <c r="S4" t="n">
-        <v>828.7538312854231</v>
+        <v>621.3135465378259</v>
       </c>
       <c r="T4" t="n">
-        <v>828.7538312854231</v>
+        <v>621.3135465378259</v>
       </c>
       <c r="U4" t="n">
-        <v>586.5235806374382</v>
+        <v>621.3135465378259</v>
       </c>
       <c r="V4" t="n">
-        <v>344.2933299894532</v>
+        <v>621.3135465378259</v>
       </c>
       <c r="W4" t="n">
-        <v>344.2933299894532</v>
+        <v>621.3135465378259</v>
       </c>
       <c r="X4" t="n">
-        <v>344.2933299894532</v>
+        <v>534.7802560751539</v>
       </c>
       <c r="Y4" t="n">
-        <v>123.5007508459231</v>
+        <v>313.9876769316238</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>329.3168919117816</v>
+        <v>614.2617208423242</v>
       </c>
       <c r="C5" t="n">
-        <v>329.3168919117816</v>
+        <v>614.2617208423242</v>
       </c>
       <c r="D5" t="n">
-        <v>329.3168919117816</v>
+        <v>614.2617208423242</v>
       </c>
       <c r="E5" t="n">
-        <v>329.3168919117816</v>
+        <v>614.2617208423242</v>
       </c>
       <c r="F5" t="n">
-        <v>36.09415310941102</v>
+        <v>607.3162200931207</v>
       </c>
       <c r="G5" t="n">
-        <v>23.22324091314775</v>
+        <v>316.4459797155199</v>
       </c>
       <c r="H5" t="n">
-        <v>23.22324091314775</v>
+        <v>23.22324091314786</v>
       </c>
       <c r="I5" t="n">
-        <v>23.22324091314775</v>
+        <v>23.22324091314786</v>
       </c>
       <c r="J5" t="n">
-        <v>59.1367338295197</v>
+        <v>59.13673382952038</v>
       </c>
       <c r="K5" t="n">
-        <v>163.7002683444956</v>
+        <v>163.7002683444971</v>
       </c>
       <c r="L5" t="n">
-        <v>330.3223409084642</v>
+        <v>330.3223409084662</v>
       </c>
       <c r="M5" t="n">
-        <v>547.3909387162867</v>
+        <v>547.3909387162897</v>
       </c>
       <c r="N5" t="n">
-        <v>772.585741753705</v>
+        <v>772.5857417537087</v>
       </c>
       <c r="O5" t="n">
-        <v>971.8955472416917</v>
+        <v>971.8955472416962</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.500854171413</v>
+        <v>1107.500854171418</v>
       </c>
       <c r="Q5" t="n">
-        <v>1161.162045657387</v>
+        <v>1161.162045657393</v>
       </c>
       <c r="R5" t="n">
-        <v>1161.162045657387</v>
+        <v>1161.162045657393</v>
       </c>
       <c r="S5" t="n">
-        <v>1161.162045657387</v>
+        <v>1161.162045657393</v>
       </c>
       <c r="T5" t="n">
-        <v>947.134661769126</v>
+        <v>1161.162045657393</v>
       </c>
       <c r="U5" t="n">
-        <v>947.134661769126</v>
+        <v>907.4844596446962</v>
       </c>
       <c r="V5" t="n">
-        <v>653.9119229667554</v>
+        <v>907.4844596446962</v>
       </c>
       <c r="W5" t="n">
-        <v>653.9119229667554</v>
+        <v>907.4844596446962</v>
       </c>
       <c r="X5" t="n">
-        <v>653.9119229667554</v>
+        <v>907.4844596446962</v>
       </c>
       <c r="Y5" t="n">
-        <v>622.5396307141521</v>
+        <v>907.4844596446962</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>477.9296635529695</v>
+        <v>72.69570494133518</v>
       </c>
       <c r="C6" t="n">
-        <v>477.9296635529695</v>
+        <v>72.69570494133518</v>
       </c>
       <c r="D6" t="n">
-        <v>328.9952538917183</v>
+        <v>23.22324091314786</v>
       </c>
       <c r="E6" t="n">
-        <v>169.7577988862628</v>
+        <v>23.22324091314786</v>
       </c>
       <c r="F6" t="n">
-        <v>23.22324091314775</v>
+        <v>23.22324091314786</v>
       </c>
       <c r="G6" t="n">
-        <v>23.22324091314775</v>
+        <v>23.22324091314786</v>
       </c>
       <c r="H6" t="n">
-        <v>23.22324091314775</v>
+        <v>23.22324091314786</v>
       </c>
       <c r="I6" t="n">
-        <v>23.22324091314775</v>
+        <v>23.22324091314786</v>
       </c>
       <c r="J6" t="n">
-        <v>25.7952243050893</v>
+        <v>25.79522430508967</v>
       </c>
       <c r="K6" t="n">
-        <v>108.3459783063294</v>
+        <v>108.3459783063302</v>
       </c>
       <c r="L6" t="n">
-        <v>265.668195611941</v>
+        <v>265.6681956119424</v>
       </c>
       <c r="M6" t="n">
-        <v>531.3350556042669</v>
+        <v>468.6126709702555</v>
       </c>
       <c r="N6" t="n">
-        <v>818.7226619044702</v>
+        <v>691.3371276269171</v>
       </c>
       <c r="O6" t="n">
-        <v>1000.252231792101</v>
+        <v>872.8666975145485</v>
       </c>
       <c r="P6" t="n">
-        <v>1126.612649313227</v>
+        <v>999.2271150356755</v>
       </c>
       <c r="Q6" t="n">
-        <v>1161.162045657387</v>
+        <v>1161.162045657393</v>
       </c>
       <c r="R6" t="n">
-        <v>1161.162045657387</v>
+        <v>1145.912305891834</v>
       </c>
       <c r="S6" t="n">
-        <v>1161.162045657387</v>
+        <v>1145.912305891834</v>
       </c>
       <c r="T6" t="n">
-        <v>1161.162045657387</v>
+        <v>1145.912305891834</v>
       </c>
       <c r="U6" t="n">
-        <v>933.0294698383386</v>
+        <v>1145.912305891834</v>
       </c>
       <c r="V6" t="n">
-        <v>853.9965007785704</v>
+        <v>910.7601976600915</v>
       </c>
       <c r="W6" t="n">
-        <v>853.9965007785704</v>
+        <v>656.52284093189</v>
       </c>
       <c r="X6" t="n">
-        <v>646.1450005730376</v>
+        <v>448.6713407263571</v>
       </c>
       <c r="Y6" t="n">
-        <v>646.1450005730376</v>
+        <v>240.9110419614032</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23.22324091314775</v>
+        <v>649.3573374179414</v>
       </c>
       <c r="C7" t="n">
-        <v>23.22324091314775</v>
+        <v>480.4211544900345</v>
       </c>
       <c r="D7" t="n">
-        <v>23.22324091314775</v>
+        <v>330.3045150776987</v>
       </c>
       <c r="E7" t="n">
-        <v>23.22324091314775</v>
+        <v>182.3914214953056</v>
       </c>
       <c r="F7" t="n">
-        <v>23.22324091314775</v>
+        <v>35.50147399739523</v>
       </c>
       <c r="G7" t="n">
-        <v>23.22324091314775</v>
+        <v>35.50147399739523</v>
       </c>
       <c r="H7" t="n">
-        <v>23.22324091314775</v>
+        <v>35.50147399739523</v>
       </c>
       <c r="I7" t="n">
-        <v>23.22324091314775</v>
+        <v>35.50147399739523</v>
       </c>
       <c r="J7" t="n">
-        <v>23.22324091314775</v>
+        <v>23.22324091314786</v>
       </c>
       <c r="K7" t="n">
-        <v>133.2846894279148</v>
+        <v>133.2846894279152</v>
       </c>
       <c r="L7" t="n">
-        <v>329.6518852993042</v>
+        <v>329.651885299305</v>
       </c>
       <c r="M7" t="n">
-        <v>547.0826837276993</v>
+        <v>547.0826837277004</v>
       </c>
       <c r="N7" t="n">
-        <v>764.7780801730504</v>
+        <v>764.7780801730519</v>
       </c>
       <c r="O7" t="n">
-        <v>949.8387182967867</v>
+        <v>949.8387182967886</v>
       </c>
       <c r="P7" t="n">
-        <v>1084.669382195909</v>
+        <v>1084.669382195911</v>
       </c>
       <c r="Q7" t="n">
-        <v>1094.584064899865</v>
+        <v>1094.584064899867</v>
       </c>
       <c r="R7" t="n">
-        <v>1094.584064899865</v>
+        <v>1094.584064899867</v>
       </c>
       <c r="S7" t="n">
-        <v>888.523259631786</v>
+        <v>1094.584064899867</v>
       </c>
       <c r="T7" t="n">
-        <v>663.2322764837297</v>
+        <v>1094.584064899867</v>
       </c>
       <c r="U7" t="n">
-        <v>663.2322764837297</v>
+        <v>1094.584064899867</v>
       </c>
       <c r="V7" t="n">
-        <v>408.5477882778429</v>
+        <v>1094.584064899867</v>
       </c>
       <c r="W7" t="n">
-        <v>408.5477882778429</v>
+        <v>1051.798381391711</v>
       </c>
       <c r="X7" t="n">
-        <v>408.5477882778429</v>
+        <v>1051.798381391711</v>
       </c>
       <c r="Y7" t="n">
-        <v>204.8717057433875</v>
+        <v>831.0058022481811</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1228.647807131574</v>
+        <v>1635.930959598287</v>
       </c>
       <c r="C8" t="n">
-        <v>859.685290191162</v>
+        <v>1266.968442657876</v>
       </c>
       <c r="D8" t="n">
-        <v>859.685290191162</v>
+        <v>908.7027440511254</v>
       </c>
       <c r="E8" t="n">
-        <v>473.8970375929177</v>
+        <v>522.9144914528811</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>111.9285866632735</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>100.2642404279664</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>100.2642404279664</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362819</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.89447953245</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2228.89447953245</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V8" t="n">
-        <v>2228.89447953245</v>
+        <v>2022.530799662409</v>
       </c>
       <c r="W8" t="n">
-        <v>2228.89447953245</v>
+        <v>2022.530799662409</v>
       </c>
       <c r="X8" t="n">
-        <v>2005.386979171507</v>
+        <v>2022.530799662409</v>
       </c>
       <c r="Y8" t="n">
-        <v>1615.247647195695</v>
+        <v>2022.530799662409</v>
       </c>
     </row>
     <row r="9">
@@ -4865,40 +4865,40 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310614</v>
+        <v>507.2413987429757</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625332</v>
+        <v>801.9449557744474</v>
       </c>
       <c r="M9" t="n">
-        <v>956.2844025217532</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N9" t="n">
-        <v>1565.661695681274</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P9" t="n">
         <v>2447.023413292609</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>604.3445683049839</v>
+        <v>813.841548125043</v>
       </c>
       <c r="C10" t="n">
-        <v>604.3445683049839</v>
+        <v>644.9053651971361</v>
       </c>
       <c r="D10" t="n">
-        <v>454.2279288926482</v>
+        <v>494.7887257848004</v>
       </c>
       <c r="E10" t="n">
-        <v>306.314835310255</v>
+        <v>346.8756322024072</v>
       </c>
       <c r="F10" t="n">
-        <v>305.8408313751036</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020476</v>
@@ -4986,28 +4986,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>825.137147448514</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>825.137147448514</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W10" t="n">
-        <v>825.137147448514</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="X10" t="n">
-        <v>825.137147448514</v>
+        <v>1153.772080970593</v>
       </c>
       <c r="Y10" t="n">
-        <v>604.3445683049839</v>
+        <v>995.4900129552827</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192582</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="K12" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468469</v>
       </c>
       <c r="L12" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962605</v>
       </c>
       <c r="M12" t="n">
-        <v>1337.934786622704</v>
+        <v>1501.840175011101</v>
       </c>
       <c r="N12" t="n">
-        <v>1767.889897446606</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C13" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711974</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S13" t="n">
-        <v>2251.007271617388</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T13" t="n">
-        <v>2031.40580664033</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U13" t="n">
-        <v>1742.330579984527</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V13" t="n">
-        <v>1487.64609177864</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W13" t="n">
-        <v>1198.22892174168</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1198.22892174168</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="14">
@@ -5266,13 +5266,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5281,28 +5281,28 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492578</v>
@@ -5314,10 +5314,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="L15" t="n">
-        <v>245.2306927803937</v>
+        <v>352.5519571452622</v>
       </c>
       <c r="M15" t="n">
-        <v>842.6091804069456</v>
+        <v>949.9304447718139</v>
       </c>
       <c r="N15" t="n">
-        <v>1470.207143961552</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>699.73118040114</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C16" t="n">
-        <v>699.73118040114</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D16" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y16" t="n">
-        <v>881.3796452313798</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="17">
@@ -5509,55 +5509,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479718</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852252</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.83315239859</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492574</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.25260147478</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.81249946657</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612122999</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852884</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5582,40 +5582,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479718</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.8166630479718</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273903</v>
+        <v>409.1360811687906</v>
       </c>
       <c r="L18" t="n">
-        <v>590.9096564684977</v>
+        <v>904.461687384549</v>
       </c>
       <c r="M18" t="n">
-        <v>1188.28814409505</v>
+        <v>1501.840175011101</v>
       </c>
       <c r="N18" t="n">
-        <v>1815.886107649656</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>869.9745311434712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>869.9745311434712</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479718</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U19" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V19" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W19" t="n">
-        <v>1500.405126015258</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1272.415575117241</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y19" t="n">
-        <v>1051.622995973711</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="20">
@@ -5734,28 +5734,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,25 +5828,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2148.04349261611</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>695.5020655703109</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C22" t="n">
-        <v>526.5658826424041</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D22" t="n">
-        <v>526.5658826424041</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E22" t="n">
         <v>484.8112968429803</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="23">
@@ -5977,7 +5977,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5989,19 +5989,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3044.370838283061</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>2875.434655355155</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>2725.318015942819</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>2577.404922360426</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>2430.514974862515</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>2430.514974862515</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4507.978318053498</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>4218.903091397696</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>3964.218603191809</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>3674.801433154848</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>3446.811882256831</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>3226.019303113301</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6214,40 +6214,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>2233.355914590557</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>2233.355914590557</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>2567.280686761778</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>3062.606292977537</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>3659.984780604088</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>4287.582744158695</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>4287.582744158695</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>390.823249958218</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797186</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6417,19 +6417,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.77365361686</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
@@ -6490,25 +6490,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6536,28 +6536,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>150.8995423128889</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>484.8243144841095</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>980.1499206998682</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3050.708758511721</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C31" t="n">
-        <v>2881.772575583814</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D31" t="n">
-        <v>2881.772575583814</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E31" t="n">
-        <v>2733.859482001421</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>2586.969534503511</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G31" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>4623.787448650995</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T31" t="n">
-        <v>4404.185983673937</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U31" t="n">
-        <v>4115.110757018135</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V31" t="n">
-        <v>3860.426268812248</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W31" t="n">
-        <v>3571.009098775287</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X31" t="n">
-        <v>3343.01954787727</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y31" t="n">
-        <v>3122.22696873374</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="32">
@@ -6694,19 +6694,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6721,31 +6721,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6794,13 +6794,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263526</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356194</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232836</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>297.8113689946113</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>297.8113689946113</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>156.0995378368093</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6888,22 +6888,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>2272.857469997002</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U34" t="n">
-        <v>1983.7822433412</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V34" t="n">
-        <v>1729.097755135313</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W34" t="n">
-        <v>1729.097755135313</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237296</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="35">
@@ -6937,22 +6937,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1859.536823237711</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.9487421954783</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>491.0125592675714</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>491.0125592675714</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7122,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2343.157686942974</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>2123.556221965915</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1834.480995310113</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1579.796507104226</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1290.379337067265</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1062.389786169248</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>841.597207025718</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
@@ -7162,7 +7162,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,22 +7171,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2253.988764961266</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>984.9192356072716</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1433.701365648819</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1205.711814750802</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>984.9192356072716</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7393,7 +7393,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
         <v>1204.759558406469</v>
@@ -7405,55 +7405,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192741</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111729</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>2383.002557118213</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>2716.927329289434</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>3212.252935505192</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>3369.710724020924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>3997.308687575531</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>3997.308687575531</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7599,22 +7599,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487567</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U43" t="n">
-        <v>1907.987318831765</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V43" t="n">
-        <v>1653.302830625878</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W43" t="n">
-        <v>1653.302830625878</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="44">
@@ -7642,58 +7642,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C45" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D45" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
-        <v>2383.002557118213</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>2716.927329289434</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>3212.252935505192</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>3809.631423131744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>4420.931837070599</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S45" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T45" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U45" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V45" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W45" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X45" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3342.537229081859</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>3173.601046153952</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>3023.484406741616</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E46" t="n">
-        <v>2875.571313159223</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F46" t="n">
-        <v>2728.681365661313</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>4221.331149328841</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>4221.331149328841</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>3966.646661122954</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>3966.646661122954</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>3738.657110224937</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>3517.864531081407</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>6.233205181928398</v>
+        <v>6.233205181928469</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8072,10 +8072,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>66.78462588923441</v>
       </c>
       <c r="P3" t="n">
-        <v>66.78462588923563</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8145,10 +8145,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>178.5096609094456</v>
+        <v>121.4700595717822</v>
       </c>
       <c r="N4" t="n">
-        <v>111.3252676074468</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8157,7 +8157,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.34295837775146</v>
+        <v>61.89011047839809</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.74236624506787</v>
+        <v>54.74236624506756</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8303,10 +8303,10 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>63.35594407476106</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>65.31631277125507</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>128.6722568460175</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>211.0329012241559</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8543,13 +8543,13 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>224.3355197601769</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>305.1601501039157</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>146.8157004124971</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>53.40527886852264</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23655,16 +23655,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>138.4949402405086</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>184.0188038644581</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>138.4949402405086</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>59.15888173022684</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>105.0969227051396</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>186.1428431935225</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H25" t="n">
-        <v>129.6605885985404</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24603,22 +24603,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>45.44677382459312</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>109.0289520621383</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>19.60579027761645</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>45.04089287986264</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25320,7 +25320,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>144.6341900408523</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>112.6104454096923</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>65.54986409393072</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>75.03697526434118</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>6.25795120238422</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>144.5956654067404</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,13 +26079,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>755753.7795564607</v>
+        <v>755753.7795564606</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>757222.7954393406</v>
+        <v>757222.7954393408</v>
       </c>
     </row>
     <row r="4">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>738630.8190212519</v>
+        <v>738630.8190212518</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>738630.8190212519</v>
+        <v>738630.8190212518</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>738630.8190212519</v>
+        <v>738630.8190212518</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>738630.8190212519</v>
+        <v>738630.8190212518</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>738630.8190212519</v>
+        <v>738630.8190212518</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>738630.8190212519</v>
+        <v>738630.8190212518</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846404</v>
+        <v>697885.5043846407</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="D2" t="n">
         <v>697885.5043846407</v>
       </c>
       <c r="E2" t="n">
-        <v>686074.6097365053</v>
+        <v>686074.6097365054</v>
       </c>
       <c r="F2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="G2" t="n">
-        <v>686074.6097365052</v>
+        <v>686074.6097365054</v>
       </c>
       <c r="H2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="I2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="J2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="K2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="L2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="M2" t="n">
         <v>686074.6097365058</v>
       </c>
       <c r="N2" t="n">
-        <v>686074.6097365059</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="O2" t="n">
-        <v>686074.6097365059</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="P2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365058</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>652246.4444800895</v>
+        <v>652246.4444800889</v>
       </c>
       <c r="C3" t="n">
-        <v>55881.32342210974</v>
+        <v>55881.32342211185</v>
       </c>
       <c r="D3" t="n">
-        <v>363279.8866276236</v>
+        <v>363279.8866276221</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245457</v>
+        <v>507485.4416245453</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,22 +26383,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>5.935930857958738e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62744.31078353589</v>
+        <v>62744.31078353582</v>
       </c>
       <c r="K3" t="n">
-        <v>12992.59634440474</v>
+        <v>12992.5963444052</v>
       </c>
       <c r="L3" t="n">
-        <v>88656.3399166624</v>
+        <v>88656.33991666218</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289268</v>
+        <v>132607.2937289266</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>261062.8075060263</v>
+        <v>261062.8075060264</v>
       </c>
       <c r="C4" t="n">
-        <v>246054.6603431037</v>
+        <v>246054.6603431033</v>
       </c>
       <c r="D4" t="n">
         <v>143951.0939828188</v>
       </c>
       <c r="E4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683052</v>
       </c>
       <c r="F4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683053</v>
       </c>
       <c r="G4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683062</v>
       </c>
       <c r="H4" t="n">
         <v>12996.86414683044</v>
@@ -26441,13 +26441,13 @@
         <v>12996.86414683044</v>
       </c>
       <c r="J4" t="n">
-        <v>12996.86414683048</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="K4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="L4" t="n">
-        <v>12996.86414683049</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="M4" t="n">
         <v>12996.86414683044</v>
@@ -26459,7 +26459,7 @@
         <v>12996.86414683044</v>
       </c>
       <c r="P4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683048</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61145.70223437332</v>
+        <v>61145.70223437328</v>
       </c>
       <c r="C5" t="n">
-        <v>65162.40123302706</v>
+        <v>65162.40123302718</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-276569.4498358487</v>
+        <v>-276569.4498358479</v>
       </c>
       <c r="C6" t="n">
-        <v>330787.1193864005</v>
+        <v>330787.1193863986</v>
       </c>
       <c r="D6" t="n">
-        <v>97716.75133435361</v>
+        <v>97716.75133435505</v>
       </c>
       <c r="E6" t="n">
-        <v>64469.77414122205</v>
+        <v>64122.39488686564</v>
       </c>
       <c r="F6" t="n">
-        <v>571955.2157657681</v>
+        <v>571607.8365114111</v>
       </c>
       <c r="G6" t="n">
-        <v>571955.2157657677</v>
+        <v>571607.8365114109</v>
       </c>
       <c r="H6" t="n">
-        <v>571955.215765768</v>
+        <v>571607.8365114105</v>
       </c>
       <c r="I6" t="n">
-        <v>571955.2157657681</v>
+        <v>571607.8365114112</v>
       </c>
       <c r="J6" t="n">
-        <v>509210.904982232</v>
+        <v>508863.5257278754</v>
       </c>
       <c r="K6" t="n">
-        <v>558962.6194213633</v>
+        <v>558615.240167006</v>
       </c>
       <c r="L6" t="n">
-        <v>483298.8758491058</v>
+        <v>482951.496594749</v>
       </c>
       <c r="M6" t="n">
-        <v>439347.9220368415</v>
+        <v>439000.5427824847</v>
       </c>
       <c r="N6" t="n">
-        <v>571955.2157657684</v>
+        <v>571607.8365114112</v>
       </c>
       <c r="O6" t="n">
-        <v>571955.2157657684</v>
+        <v>571607.8365114112</v>
       </c>
       <c r="P6" t="n">
-        <v>571955.2157657681</v>
+        <v>571607.8365114112</v>
       </c>
     </row>
   </sheetData>
@@ -26694,22 +26694,22 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>6.632408907794991e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26727,7 +26727,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.36886840263309e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26737,22 +26737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>593.476100338065</v>
+        <v>593.4761003380646</v>
       </c>
       <c r="C3" t="n">
-        <v>636.9329421575584</v>
+        <v>636.9329421575596</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="H3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>239.8079481415051</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="C4" t="n">
-        <v>290.2905114143468</v>
+        <v>290.2905114143483</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26804,7 +26804,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099647</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26828,7 +26828,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,10 +26931,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.632408907794991e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>-6.632408907794991e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>593.476100338065</v>
+        <v>593.4761003380646</v>
       </c>
       <c r="C3" t="n">
-        <v>43.45684181949343</v>
+        <v>43.45684181949503</v>
       </c>
       <c r="D3" t="n">
-        <v>297.1319499599809</v>
+        <v>297.1319499599797</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241344</v>
+        <v>433.910608224134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,40 +27011,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>239.8079481415051</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="C4" t="n">
-        <v>50.48256327284173</v>
+        <v>50.48256327284379</v>
       </c>
       <c r="D4" t="n">
-        <v>350.2943206856919</v>
+        <v>350.2943206856906</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996091</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>239.8079481415046</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="K4" t="n">
-        <v>50.48256327284196</v>
+        <v>50.48256327284356</v>
       </c>
       <c r="L4" t="n">
-        <v>350.2943206856917</v>
+        <v>350.2943206856908</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996091</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.632408907794991e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>239.8079481415051</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="K4" t="n">
-        <v>50.48256327284173</v>
+        <v>50.48256327284379</v>
       </c>
       <c r="L4" t="n">
-        <v>350.2943206856919</v>
+        <v>350.2943206856906</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996091</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27275,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>142.9258935219761</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>281.7491914791845</v>
       </c>
       <c r="E2" t="n">
-        <v>142.1224219307567</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>208.5701089646106</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>315.0408840752156</v>
       </c>
       <c r="I2" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>87.94431032863042</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>129.923152536964</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>146.4299905145485</v>
+        <v>146.4299905145491</v>
       </c>
     </row>
     <row r="3">
@@ -27457,16 +27457,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>56.02302947242811</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27475,10 +27475,10 @@
         <v>136.0669836643703</v>
       </c>
       <c r="H3" t="n">
-        <v>99.90681807664345</v>
+        <v>99.90681807664346</v>
       </c>
       <c r="I3" t="n">
-        <v>45.44580843958668</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,7 +27508,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T3" t="n">
         <v>195.0194028815133</v>
@@ -27520,10 +27520,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>11.88703501941453</v>
+        <v>237.409411490318</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27545,13 +27545,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>63.64782270991374</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H4" t="n">
         <v>152.7120966692326</v>
@@ -27560,7 +27560,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J4" t="n">
-        <v>17.695841881769</v>
+        <v>17.69584188176904</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27587,22 +27587,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>223.3729047207587</v>
       </c>
       <c r="U4" t="n">
-        <v>46.4527065165919</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V4" t="n">
-        <v>12.32969518232292</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>140.0416978309919</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92.44333024913374</v>
+        <v>92.44333024913232</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27627,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>116.5855343273646</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>124.7806651004759</v>
       </c>
       <c r="H5" t="n">
-        <v>313.2517287735718</v>
+        <v>22.96121735922349</v>
       </c>
       <c r="I5" t="n">
-        <v>111.7608855401375</v>
+        <v>111.7608855401373</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>150.6718910157313</v>
+        <v>150.6718910157312</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>211.8871100493787</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1408101525697</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>37.46174705578807</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>355.1793693259763</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27700,22 +27700,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>98.46732617673331</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>135.9735104574378</v>
       </c>
       <c r="H6" t="n">
-        <v>99.00406368337435</v>
+        <v>99.00406368337433</v>
       </c>
       <c r="I6" t="n">
-        <v>42.22754232370909</v>
+        <v>42.227542323709</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>15.0972423679035</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>146.235897424241</v>
@@ -27751,19 +27751,19 @@
         <v>194.6426402623424</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8512500608582</v>
       </c>
       <c r="V6" t="n">
-        <v>154.5579477802547</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27776,16 +27776,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.8424117578468</v>
@@ -27794,10 +27794,10 @@
         <v>152.0153623856348</v>
       </c>
       <c r="I7" t="n">
-        <v>120.9099147197632</v>
+        <v>120.9099147197631</v>
       </c>
       <c r="J7" t="n">
-        <v>12.15545075340506</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>125.6496154441976</v>
+        <v>125.6496154441975</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.0001972153978</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.0380733165757</v>
       </c>
       <c r="U7" t="n">
         <v>286.2563802146393</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>244.1651716635171</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>16.94533164298394</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27858,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>17.18263335110677</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27912,16 +27912,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>148.4586753211356</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>144.9517841271313</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
@@ -28031,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>61.88540601693748</v>
       </c>
     </row>
     <row r="11">
@@ -28089,13 +28089,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28104,10 +28104,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.3639153663441e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,22 +28140,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28341,10 +28341,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,13 +28377,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>1.84741111297626e-12</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28629,7 +28629,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>4.092726157978177e-12</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -29274,25 +29274,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>6.632408907794991e-14</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>6.632408907794991e-14</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>6.632408907794991e-14</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>6.632408907794991e-14</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>6.632408907794991e-14</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>6.632408907794991e-14</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>6.632408907794991e-14</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>6.632408907794991e-14</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>6.632408907794991e-14</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>6.632408907794991e-14</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>6.632408907794991e-14</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>6.632408907794991e-14</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>6.632408907794991e-14</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>6.632408907794991e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29748,7 +29748,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -30696,7 +30696,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>9.426059932593489e-13</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.385833569198249</v>
+        <v>2.385833569198248</v>
       </c>
       <c r="H2" t="n">
-        <v>24.43391804055157</v>
+        <v>24.43391804055156</v>
       </c>
       <c r="I2" t="n">
-        <v>91.97984867651559</v>
+        <v>91.97984867651554</v>
       </c>
       <c r="J2" t="n">
-        <v>202.4946418937401</v>
+        <v>202.49464189374</v>
       </c>
       <c r="K2" t="n">
-        <v>303.4869768779021</v>
+        <v>303.4869768779019</v>
       </c>
       <c r="L2" t="n">
-        <v>376.502430971253</v>
+        <v>376.5024309712528</v>
       </c>
       <c r="M2" t="n">
-        <v>418.9314987074824</v>
+        <v>418.9314987074821</v>
       </c>
       <c r="N2" t="n">
-        <v>425.710248335967</v>
+        <v>425.7102483359667</v>
       </c>
       <c r="O2" t="n">
-        <v>401.9861157822518</v>
+        <v>401.9861157822516</v>
       </c>
       <c r="P2" t="n">
-        <v>343.08584954267</v>
+        <v>343.0858495426698</v>
       </c>
       <c r="Q2" t="n">
-        <v>257.6431848457576</v>
+        <v>257.6431848457574</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>149.8691179411496</v>
       </c>
       <c r="S2" t="n">
-        <v>54.36718245810516</v>
+        <v>54.36718245810513</v>
       </c>
       <c r="T2" t="n">
-        <v>10.44398644916534</v>
+        <v>10.44398644916533</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1908666855358599</v>
+        <v>0.1908666855358598</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.276533498840366</v>
+        <v>1.276533498840365</v>
       </c>
       <c r="H3" t="n">
         <v>12.32862615985301</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9508244118284</v>
+        <v>43.95082441182838</v>
       </c>
       <c r="J3" t="n">
-        <v>120.6044214847383</v>
+        <v>120.6044214847382</v>
       </c>
       <c r="K3" t="n">
-        <v>206.1321659070428</v>
+        <v>206.1321659070427</v>
       </c>
       <c r="L3" t="n">
-        <v>277.1701353512822</v>
+        <v>277.170135351282</v>
       </c>
       <c r="M3" t="n">
-        <v>323.4444746842453</v>
+        <v>323.4444746842452</v>
       </c>
       <c r="N3" t="n">
-        <v>332.0050874900653</v>
+        <v>332.0050874900651</v>
       </c>
       <c r="O3" t="n">
-        <v>303.7197925947077</v>
+        <v>303.7197925947075</v>
       </c>
       <c r="P3" t="n">
-        <v>243.7619099671573</v>
+        <v>243.7619099671572</v>
       </c>
       <c r="Q3" t="n">
-        <v>162.9483813607457</v>
+        <v>162.9483813607456</v>
       </c>
       <c r="R3" t="n">
-        <v>79.25705355080802</v>
+        <v>79.25705355080798</v>
       </c>
       <c r="S3" t="n">
-        <v>23.71104985784626</v>
+        <v>23.71104985784624</v>
       </c>
       <c r="T3" t="n">
-        <v>5.145325813308316</v>
+        <v>5.145325813308313</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0839824670289715</v>
+        <v>0.08398246702897144</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.070202803888314</v>
+        <v>1.070202803888313</v>
       </c>
       <c r="H4" t="n">
-        <v>9.515075838207014</v>
+        <v>9.515075838207009</v>
       </c>
       <c r="I4" t="n">
-        <v>32.1839170478413</v>
+        <v>32.18391704784128</v>
       </c>
       <c r="J4" t="n">
-        <v>75.66333823490378</v>
+        <v>75.66333823490373</v>
       </c>
       <c r="K4" t="n">
-        <v>124.3381075790241</v>
+        <v>124.338107579024</v>
       </c>
       <c r="L4" t="n">
-        <v>159.1099695889953</v>
+        <v>159.1099695889952</v>
       </c>
       <c r="M4" t="n">
-        <v>167.7591540676927</v>
+        <v>167.7591540676925</v>
       </c>
       <c r="N4" t="n">
-        <v>163.7702163441091</v>
+        <v>163.770216344109</v>
       </c>
       <c r="O4" t="n">
-        <v>151.2683017714137</v>
+        <v>151.2683017714136</v>
       </c>
       <c r="P4" t="n">
-        <v>129.436164572092</v>
+        <v>129.4361645720919</v>
       </c>
       <c r="Q4" t="n">
-        <v>89.6148911510478</v>
+        <v>89.61489115104776</v>
       </c>
       <c r="R4" t="n">
-        <v>48.12020970937817</v>
+        <v>48.12020970937814</v>
       </c>
       <c r="S4" t="n">
-        <v>18.65071613685361</v>
+        <v>18.6507161368536</v>
       </c>
       <c r="T4" t="n">
-        <v>4.572684707522794</v>
+        <v>4.572684707522791</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05837469839390809</v>
+        <v>0.05837469839390805</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.560534440834404</v>
+        <v>2.560534440834409</v>
       </c>
       <c r="H5" t="n">
-        <v>26.22307334219534</v>
+        <v>26.22307334219539</v>
       </c>
       <c r="I5" t="n">
-        <v>98.71500403026845</v>
+        <v>98.71500403026863</v>
       </c>
       <c r="J5" t="n">
-        <v>217.3221599977692</v>
+        <v>217.3221599977696</v>
       </c>
       <c r="K5" t="n">
-        <v>325.7095828782896</v>
+        <v>325.7095828782902</v>
       </c>
       <c r="L5" t="n">
-        <v>404.0715387719755</v>
+        <v>404.0715387719763</v>
       </c>
       <c r="M5" t="n">
-        <v>449.6074431341643</v>
+        <v>449.6074431341652</v>
       </c>
       <c r="N5" t="n">
-        <v>456.8825616141851</v>
+        <v>456.882561614186</v>
       </c>
       <c r="O5" t="n">
-        <v>431.421247268138</v>
+        <v>431.4212472681388</v>
       </c>
       <c r="P5" t="n">
-        <v>368.2080532600386</v>
+        <v>368.2080532600393</v>
       </c>
       <c r="Q5" t="n">
-        <v>276.5089135976564</v>
+        <v>276.5089135976569</v>
       </c>
       <c r="R5" t="n">
-        <v>160.8431715690643</v>
+        <v>160.8431715690646</v>
       </c>
       <c r="S5" t="n">
-        <v>58.34817857051403</v>
+        <v>58.34817857051414</v>
       </c>
       <c r="T5" t="n">
-        <v>11.20873951475261</v>
+        <v>11.20873951475263</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2048427552667522</v>
+        <v>0.2048427552667527</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.370006705772862</v>
+        <v>1.370006705772864</v>
       </c>
       <c r="H6" t="n">
-        <v>13.23138055312211</v>
+        <v>13.23138055312214</v>
       </c>
       <c r="I6" t="n">
-        <v>47.16909052770598</v>
+        <v>47.16909052770608</v>
       </c>
       <c r="J6" t="n">
-        <v>129.4355896888299</v>
+        <v>129.4355896888301</v>
       </c>
       <c r="K6" t="n">
-        <v>221.2260389756116</v>
+        <v>221.226038975612</v>
       </c>
       <c r="L6" t="n">
-        <v>297.4657103916031</v>
+        <v>297.4657103916037</v>
       </c>
       <c r="M6" t="n">
-        <v>347.1284534758693</v>
+        <v>347.1284534758699</v>
       </c>
       <c r="N6" t="n">
-        <v>356.315910726425</v>
+        <v>356.3159107264258</v>
       </c>
       <c r="O6" t="n">
-        <v>325.9594463511422</v>
+        <v>325.9594463511428</v>
       </c>
       <c r="P6" t="n">
-        <v>261.6111927892055</v>
+        <v>261.611192789206</v>
       </c>
       <c r="Q6" t="n">
-        <v>174.8801542316376</v>
+        <v>174.8801542316379</v>
       </c>
       <c r="R6" t="n">
-        <v>85.06059178473963</v>
+        <v>85.06059178473978</v>
       </c>
       <c r="S6" t="n">
-        <v>25.44727367959677</v>
+        <v>25.44727367959682</v>
       </c>
       <c r="T6" t="n">
-        <v>5.522088432479207</v>
+        <v>5.522088432479218</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09013202011663565</v>
+        <v>0.09013202011663583</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.14856760061199</v>
+        <v>1.148567600611993</v>
       </c>
       <c r="H7" t="n">
-        <v>10.2118101218048</v>
+        <v>10.21181012180481</v>
       </c>
       <c r="I7" t="n">
-        <v>34.54056020749514</v>
+        <v>34.54056020749521</v>
       </c>
       <c r="J7" t="n">
-        <v>81.20372936326771</v>
+        <v>81.20372936326788</v>
       </c>
       <c r="K7" t="n">
-        <v>133.4426721438294</v>
+        <v>133.4426721438297</v>
       </c>
       <c r="L7" t="n">
-        <v>170.7606776400772</v>
+        <v>170.7606776400775</v>
       </c>
       <c r="M7" t="n">
-        <v>180.0431921577504</v>
+        <v>180.0431921577508</v>
       </c>
       <c r="N7" t="n">
-        <v>175.7621674645604</v>
+        <v>175.7621674645608</v>
       </c>
       <c r="O7" t="n">
-        <v>162.3448095846839</v>
+        <v>162.3448095846843</v>
       </c>
       <c r="P7" t="n">
-        <v>138.9140305321992</v>
+        <v>138.9140305321995</v>
       </c>
       <c r="Q7" t="n">
-        <v>96.17687426579131</v>
+        <v>96.1768742657915</v>
       </c>
       <c r="R7" t="n">
-        <v>51.64377593297185</v>
+        <v>51.64377593297195</v>
       </c>
       <c r="S7" t="n">
-        <v>20.01640082157441</v>
+        <v>20.01640082157445</v>
       </c>
       <c r="T7" t="n">
-        <v>4.907516111705776</v>
+        <v>4.907516111705785</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06264914185156319</v>
+        <v>0.06264914185156331</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>575.5951359912056</v>
       </c>
       <c r="N12" t="n">
-        <v>565.6398038246476</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S14" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>248.7449369209205</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O15" t="n">
-        <v>535.8585467435948</v>
+        <v>700.0808204437241</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S17" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>305.187676947252</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O18" t="n">
-        <v>186.6878763515707</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32469,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32548,10 +32548,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32566,10 +32566,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>543.0832917018711</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32785,31 +32785,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>433.9798411722591</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33025,7 +33025,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33040,13 +33040,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>305.6802133385881</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33262,7 +33262,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>182.7118610708585</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33274,13 +33274,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33514,16 +33514,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>359.1374415194863</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33733,34 +33733,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>347.4623967873087</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33906,7 +33906,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
         <v>926.5868626460027</v>
@@ -33970,19 +33970,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>233.9389431948335</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33991,13 +33991,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>436.0678650906015</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067246</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34219,22 +34219,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>301.1823051500298</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34459,19 +34459,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>748.8168776781358</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>21.44873736705381</v>
+        <v>21.4487373670537</v>
       </c>
       <c r="K2" t="n">
-        <v>83.39712583292152</v>
+        <v>83.39712583292135</v>
       </c>
       <c r="L2" t="n">
-        <v>140.7360160012658</v>
+        <v>140.7360160012656</v>
       </c>
       <c r="M2" t="n">
-        <v>188.5852654802096</v>
+        <v>188.5852654802094</v>
       </c>
       <c r="N2" t="n">
-        <v>196.2971847393761</v>
+        <v>196.2971847393758</v>
       </c>
       <c r="O2" t="n">
-        <v>171.8879043605651</v>
+        <v>171.8879043605649</v>
       </c>
       <c r="P2" t="n">
-        <v>111.8528537874005</v>
+        <v>111.8528537874002</v>
       </c>
       <c r="Q2" t="n">
-        <v>35.33749497130813</v>
+        <v>35.33749497130796</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>68.29072693268384</v>
+        <v>68.2907269326837</v>
       </c>
       <c r="L3" t="n">
-        <v>138.615755571408</v>
+        <v>138.6157555714078</v>
       </c>
       <c r="M3" t="n">
-        <v>181.310440762227</v>
+        <v>181.3104407622268</v>
       </c>
       <c r="N3" t="n">
-        <v>200.6633754067319</v>
+        <v>200.6633754067318</v>
       </c>
       <c r="O3" t="n">
-        <v>161.1235481502632</v>
+        <v>227.9081740394975</v>
       </c>
       <c r="P3" t="n">
-        <v>176.5721284420627</v>
+        <v>109.7875025528269</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.9666072747242</v>
+        <v>22.96660727472408</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>102.0686157531412</v>
+        <v>102.0686157531411</v>
       </c>
       <c r="L4" t="n">
-        <v>186.6999948493115</v>
+        <v>186.6999948493114</v>
       </c>
       <c r="M4" t="n">
-        <v>207.3430310295333</v>
+        <v>150.3034296918697</v>
       </c>
       <c r="N4" t="n">
-        <v>147.4099394863226</v>
+        <v>207.9023887233376</v>
       </c>
       <c r="O4" t="n">
-        <v>175.8534296854534</v>
+        <v>175.8534296854533</v>
       </c>
       <c r="P4" t="n">
-        <v>126.7147238369855</v>
+        <v>126.7147238369854</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.452847899353415</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>36.27625547108289</v>
+        <v>36.27625547108332</v>
       </c>
       <c r="K5" t="n">
-        <v>105.619731833309</v>
+        <v>105.6197318333096</v>
       </c>
       <c r="L5" t="n">
-        <v>168.3051238019883</v>
+        <v>168.3051238019891</v>
       </c>
       <c r="M5" t="n">
-        <v>219.2612099068916</v>
+        <v>219.2612099068924</v>
       </c>
       <c r="N5" t="n">
-        <v>227.4694980175942</v>
+        <v>227.4694980175951</v>
       </c>
       <c r="O5" t="n">
-        <v>201.3230358464512</v>
+        <v>201.3230358464521</v>
       </c>
       <c r="P5" t="n">
-        <v>136.975057504769</v>
+        <v>136.9750575047697</v>
       </c>
       <c r="Q5" t="n">
-        <v>54.20322372320689</v>
+        <v>54.20322372320746</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>2.597963022163185</v>
+        <v>2.597963022163441</v>
       </c>
       <c r="K6" t="n">
-        <v>83.38460000125261</v>
+        <v>83.38460000125303</v>
       </c>
       <c r="L6" t="n">
-        <v>158.9113306117289</v>
+        <v>158.9113306117295</v>
       </c>
       <c r="M6" t="n">
-        <v>268.350363628612</v>
+        <v>204.9944195538516</v>
       </c>
       <c r="N6" t="n">
-        <v>290.2905114143468</v>
+        <v>224.9741986430925</v>
       </c>
       <c r="O6" t="n">
-        <v>183.3632019066977</v>
+        <v>183.3632019066984</v>
       </c>
       <c r="P6" t="n">
-        <v>127.6367853748752</v>
+        <v>127.6367853748757</v>
       </c>
       <c r="Q6" t="n">
-        <v>34.89838014561604</v>
+        <v>163.5706369916338</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>111.1731803179466</v>
+        <v>111.1731803179468</v>
       </c>
       <c r="L7" t="n">
-        <v>198.3507029003934</v>
+        <v>198.3507029003937</v>
       </c>
       <c r="M7" t="n">
-        <v>219.627069119591</v>
+        <v>219.6270691195914</v>
       </c>
       <c r="N7" t="n">
-        <v>219.894339843789</v>
+        <v>219.8943398437894</v>
       </c>
       <c r="O7" t="n">
-        <v>186.9299374987236</v>
+        <v>186.9299374987239</v>
       </c>
       <c r="P7" t="n">
-        <v>136.1925897970927</v>
+        <v>136.192589797093</v>
       </c>
       <c r="Q7" t="n">
-        <v>10.01483101409693</v>
+        <v>10.01483101409711</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>397.6203974676407</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378502</v>
@@ -35263,13 +35263,13 @@
         <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>615.5326193530509</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>640.5848321000387</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q9" t="n">
         <v>116.4807223308546</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>433.4611020691872</v>
       </c>
       <c r="N12" t="n">
-        <v>434.2980917413143</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>110.1905571410463</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O15" t="n">
-        <v>393.2623022991504</v>
+        <v>557.4845759992796</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>167.3462379728931</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O18" t="n">
-        <v>44.0916319071262</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36214,10 +36214,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>291.8458072502408</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36688,13 +36688,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>171.7058059242579</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>55.8742344041918</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36922,13 +36922,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37162,16 +37162,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>219.1556674334648</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>208.9080170074345</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37554,7 +37554,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
         <v>696.488651224316</v>
@@ -37618,19 +37618,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>91.80490927281522</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37639,13 +37639,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>302.0934576762713</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236318714</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37867,22 +37867,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>159.0482712280115</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38107,19 +38107,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>617.4751655948025</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
